--- a/data/NP20versusRestIncomeTrendsLAC.xlsx
+++ b/data/NP20versusRestIncomeTrendsLAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCDDCE99-45C1-401C-9260-D8A555152C6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA828CB-F36F-4B80-A215-289EF8B9C39B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{DA0CF18E-93C0-45FA-AECC-E30D624E136A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{E37D7D82-9DE6-448F-A495-22FE19AB4B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Belize" sheetId="2" r:id="rId1"/>
@@ -211,7 +211,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72841CA-A8A9-4F11-A399-504DD093C87F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76266D84-BB3F-426B-A265-69A3D4266C82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,7 +269,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5C439C-68C8-4B26-9A46-BFA6B6B73021}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEB3DCF-EA7D-4C56-A543-9FC2ED73A41B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,7 +327,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45175AA0-D4CA-441C-AC8D-4C4398D65CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAD77DF-2AD2-49DC-BD0C-41B561BB20EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,7 +385,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04467BB-305C-4878-846E-13F3DEADC21F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83AB9CF-ABD2-4A52-8114-160D14E49BBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -443,7 +443,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE80449-FCFB-40AA-9C4E-8EAA544EF8D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C207455E-2E8A-426B-8E16-9FC425CE6CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +501,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FEA1B7-06D3-484A-BBE2-EFBDA26DB659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E7F4EE-F3BA-40CF-962C-437B63765A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +559,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5FB3A3-D6ED-4D82-A758-E518FDDA24AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E88D08-12C5-4338-9C01-897D1F61F620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E013400B-8368-4F5C-AAEA-B8788D46644C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EF1A5C-D2D7-4970-B21B-238FB9D7FBFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,7 +675,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1FD0B1-5E64-4787-AEE6-AB20B496AD94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F0DEA3-E1E0-48EF-A6F8-DB3B7B908817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +733,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B4ED0A-F4D9-4986-8F99-FE39F722D6AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82BE0BE-ECE6-4190-8E40-D7DACA1230E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +791,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B67A569-6133-4A38-AEB5-1B2984F9F065}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FAB9FD-1DB5-48F8-AD3E-DDD973BF3EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +849,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486A1C34-F5C1-4D3F-8FFF-12AA170B79EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BB0CF8-BA84-4892-A25A-EFA911FC6B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +907,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDA2AC4-B6B4-4852-8F5A-DE89F966FDE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5079E8F-4680-4C34-B4AD-6571F42DF045}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCEFC4D-7A0F-4121-864B-99FDD1BC4519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE48469-429E-42BF-AEE8-6D7328636DC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1023,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523C9650-83D4-476B-89FA-1613D5E0CA4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28D6913-C08E-4CCD-9C53-546C4FDF4827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64E4975-950B-4DFA-A92F-F68DE4036309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C807CB-072E-4041-96BE-84A4066F7EED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726A8C9B-814C-44A1-9848-71D39E9D9F11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDC5733-3167-4B10-A0F0-DC44C7E91636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBF06EB7-4B61-4C3A-97B1-688D9A601CA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BDF9EE-7723-49C6-81B0-6D4394218528}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB94732-CBD3-4EF8-AA93-CBDB9FDA806B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6DB52-E3AB-4CBE-8B51-ADF944EFA698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C7D59C-D13C-4329-A128-2F21BC316B76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B7975E-6195-495A-9B9C-01EC70AE8F72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FBC55B5-7A3F-4429-818A-7F62614C3E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0460A0-67C8-4DD0-ADA8-2BCA20EA6A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CA2EFB-A958-4DA9-A27A-845D18EFC831}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13814EE6-80AE-49BC-985C-C6D8907E7954}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370FE75F-41F2-4831-ADAF-BA7380ED3ED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5F3AB7-2E16-4395-BDA5-074397955ABA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1242178-5E27-41C9-973F-A361D196BC89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E544E3D-4191-43F0-93F3-0913209079EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBB740C-F380-42D0-8120-B6C3B7F5233A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD201B-5E85-4BD4-93A9-3D4BDA14EA52}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1905,10 +1905,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0.114952832</v>
+        <v>1.3249528319999999</v>
       </c>
       <c r="K2">
-        <v>11.1588165865205</v>
+        <v>10.856316586520499</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -1919,10 +1919,10 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0.46257611949999999</v>
+        <v>1.0825761195000001</v>
       </c>
       <c r="K3">
-        <v>9.02534364135788</v>
+        <v>8.8703436413578807</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -1933,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0.36997232400000002</v>
+        <v>1.3799723239999999</v>
       </c>
       <c r="K4">
-        <v>11.5595726724247</v>
+        <v>11.307072672424701</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -1947,10 +1947,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0.57888260999999996</v>
+        <v>1.09888261</v>
       </c>
       <c r="K5">
-        <v>9.1337985255821899</v>
+        <v>9.0037985255821908</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -1961,10 +1961,10 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>0.22884670000000101</v>
+        <v>1.6588467</v>
       </c>
       <c r="K6">
-        <v>13.949566407191799</v>
+        <v>13.592066407191799</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -1975,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <v>0.59250035999999995</v>
+        <v>1.4625003599999999</v>
       </c>
       <c r="K7">
-        <v>10.7988297045205</v>
+        <v>10.581329704520501</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -1989,10 +1989,10 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>0.52701821000000004</v>
+        <v>1.3270182100000001</v>
       </c>
       <c r="K8">
-        <v>10.200241337911001</v>
+        <v>10.000241337911</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2003,10 +2003,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0.49294495399999999</v>
+        <v>1.5029449539999999</v>
       </c>
       <c r="K9">
-        <v>11.578473350541101</v>
+        <v>11.3259733505411</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2017,10 +2017,10 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>0.78000931200000001</v>
+        <v>1.4100093119999999</v>
       </c>
       <c r="K10">
-        <v>10.783025069260299</v>
+        <v>10.6255250692603</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2031,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>1.0101678679999999</v>
+        <v>1.2901678679999999</v>
       </c>
       <c r="K11">
-        <v>9.7924566631369903</v>
+        <v>9.7224566631369793</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2045,10 +2045,10 @@
         <v>4</v>
       </c>
       <c r="J12">
-        <v>1.1027120370000001</v>
+        <v>1.3527120370000001</v>
       </c>
       <c r="K12">
-        <v>10.2562658263664</v>
+        <v>10.1937658263664</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2059,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="J13">
-        <v>1.223088945</v>
+        <v>1.3830889449999999</v>
       </c>
       <c r="K13">
-        <v>10.462797626763701</v>
+        <v>10.4227976267637</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2073,10 +2073,10 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1.2894078280000001</v>
+        <v>1.399407828</v>
       </c>
       <c r="K14">
-        <v>10.5732946183425</v>
+        <v>10.5457946183425</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2087,10 +2087,10 @@
         <v>4</v>
       </c>
       <c r="J15">
-        <v>1.4144121679999999</v>
+        <v>1.4344121679999999</v>
       </c>
       <c r="K15">
-        <v>10.814546273068499</v>
+        <v>10.8095462730685</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2101,10 +2101,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>1.5686451025000001</v>
+        <v>1.4386451025</v>
       </c>
       <c r="K16">
-        <v>10.8089921490325</v>
+        <v>10.841492149032501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAE5036-0D7C-4433-A4F6-987E8F994FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC153EF-DF3F-4E90-90B3-6B9B61A7ED0C}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2143,10 +2143,10 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>0.67458622450000005</v>
+        <v>0.57458622449999996</v>
       </c>
       <c r="K2">
-        <v>5.1716370055188303</v>
+        <v>5.1966370055188396</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2157,10 +2157,10 @@
         <v>13</v>
       </c>
       <c r="J3">
-        <v>0.88585177000000004</v>
+        <v>0.51585177000000004</v>
       </c>
       <c r="K3">
-        <v>4.5730466465411004</v>
+        <v>4.6655466465410997</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2171,10 +2171,10 @@
         <v>13</v>
       </c>
       <c r="J4">
-        <v>0.837421839</v>
+        <v>0.62742183900000004</v>
       </c>
       <c r="K4">
-        <v>7.0293650881952097</v>
+        <v>7.0818650881952001</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2185,10 +2185,10 @@
         <v>13</v>
       </c>
       <c r="J5">
-        <v>0.98114397600000003</v>
+        <v>0.53114397599999996</v>
       </c>
       <c r="K5">
-        <v>4.9141797594246599</v>
+        <v>5.0266797594246597</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2199,10 +2199,10 @@
         <v>13</v>
       </c>
       <c r="J6">
-        <v>0.72054950149999997</v>
+        <v>0.8805495015</v>
       </c>
       <c r="K6">
-        <v>8.5416681040770595</v>
+        <v>8.5016681040770496</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2213,10 +2213,10 @@
         <v>13</v>
       </c>
       <c r="J7">
-        <v>0.69596058999999999</v>
+        <v>1.2259605899999999</v>
       </c>
       <c r="K7">
-        <v>10.4921975237329</v>
+        <v>10.359697523732899</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2227,10 +2227,10 @@
         <v>13</v>
       </c>
       <c r="J8">
-        <v>0.51495721849999998</v>
+        <v>1.6949572184999999</v>
       </c>
       <c r="K8">
-        <v>12.639359325512</v>
+        <v>12.344359325512</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2241,10 +2241,10 @@
         <v>13</v>
       </c>
       <c r="J9">
-        <v>0.56795884050000001</v>
+        <v>1.8279588405</v>
       </c>
       <c r="K9">
-        <v>13.3587541254914</v>
+        <v>13.0437541254914</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2255,10 +2255,10 @@
         <v>13</v>
       </c>
       <c r="J10">
-        <v>0.81310561999999997</v>
+        <v>1.7531056199999999</v>
       </c>
       <c r="K10">
-        <v>13.4438345539041</v>
+        <v>13.208834553904101</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2269,10 +2269,10 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>0.98513523000000003</v>
+        <v>1.8251352300000001</v>
       </c>
       <c r="K11">
-        <v>13.1291956445548</v>
+        <v>12.919195644554801</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2283,10 +2283,10 @@
         <v>13</v>
       </c>
       <c r="J12">
-        <v>1.1841203680000001</v>
+        <v>1.804120368</v>
       </c>
       <c r="K12">
-        <v>11.8613918258082</v>
+        <v>11.7063918258082</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2297,10 +2297,10 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>1.342254493</v>
+        <v>1.832254493</v>
       </c>
       <c r="K13">
-        <v>11.470093910996599</v>
+        <v>11.347593910996601</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2311,10 +2311,10 @@
         <v>13</v>
       </c>
       <c r="J14">
-        <v>1.432077051</v>
+        <v>1.852077051</v>
       </c>
       <c r="K14">
-        <v>11.0284560797158</v>
+        <v>10.9234560797158</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2325,10 +2325,10 @@
         <v>13</v>
       </c>
       <c r="J15">
-        <v>1.5930190755</v>
+        <v>1.8830190755</v>
       </c>
       <c r="K15">
-        <v>10.6228575598921</v>
+        <v>10.550357559892101</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2339,10 +2339,10 @@
         <v>13</v>
       </c>
       <c r="J16">
-        <v>1.7236102950000001</v>
+        <v>1.9936102950000001</v>
       </c>
       <c r="K16">
-        <v>10.6497371522774</v>
+        <v>10.582237152277401</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2355,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C773E-EC10-4017-8BBA-8CCAFB16AE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13005DAA-70A5-4B60-8B4A-F412D9319621}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2381,10 +2381,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>0.46335921200000002</v>
+        <v>1.0433592119999999</v>
       </c>
       <c r="K2">
-        <v>5.8601766353561597</v>
+        <v>5.7151766353561602</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2395,10 +2395,10 @@
         <v>14</v>
       </c>
       <c r="J3">
-        <v>0.77845247200000001</v>
+        <v>0.80845247200000003</v>
       </c>
       <c r="K3">
-        <v>4.4362074299452097</v>
+        <v>4.4287074299452103</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2409,10 +2409,10 @@
         <v>14</v>
       </c>
       <c r="J4">
-        <v>0.90634397899999997</v>
+        <v>0.76634397899999995</v>
       </c>
       <c r="K4">
-        <v>4.1628167449760296</v>
+        <v>4.1978167449760297</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2423,10 +2423,10 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <v>0.877139475</v>
+        <v>0.84713947499999998</v>
       </c>
       <c r="K5">
-        <v>4.6330918435787698</v>
+        <v>4.6405918435787701</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2437,10 +2437,10 @@
         <v>14</v>
       </c>
       <c r="J6">
-        <v>0.856630106</v>
+        <v>0.96663010599999999</v>
       </c>
       <c r="K6">
-        <v>5.3090027474725998</v>
+        <v>5.2815027474726</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2451,10 +2451,10 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>0.76202818049999999</v>
+        <v>1.3620281805000001</v>
       </c>
       <c r="K7">
-        <v>7.5331943247380098</v>
+        <v>7.3831943247380103</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2465,10 +2465,10 @@
         <v>14</v>
       </c>
       <c r="J8">
-        <v>0.60558112500000005</v>
+        <v>1.555581125</v>
       </c>
       <c r="K8">
-        <v>8.4644156776541095</v>
+        <v>8.2269156776541106</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2479,10 +2479,10 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0.68232627199999996</v>
+        <v>1.592326272</v>
       </c>
       <c r="K9">
-        <v>8.6487444593972604</v>
+        <v>8.4212444593972595</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2493,10 +2493,10 @@
         <v>14</v>
       </c>
       <c r="J10">
-        <v>0.88837295000000005</v>
+        <v>1.5983729499999999</v>
       </c>
       <c r="K10">
-        <v>8.6307259405821899</v>
+        <v>8.4532259405821897</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2507,10 +2507,10 @@
         <v>14</v>
       </c>
       <c r="J11">
-        <v>0.87525936650000002</v>
+        <v>1.8452593665000001</v>
       </c>
       <c r="K11">
-        <v>10.001433103580499</v>
+        <v>9.7589331035804801</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2521,10 +2521,10 @@
         <v>14</v>
       </c>
       <c r="J12">
-        <v>0.92923392000000005</v>
+        <v>1.98923392</v>
       </c>
       <c r="K12">
-        <v>10.7853517939726</v>
+        <v>10.520351793972599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2535,10 +2535,10 @@
         <v>14</v>
       </c>
       <c r="J13">
-        <v>1.0254924175</v>
+        <v>2.0854924174999998</v>
       </c>
       <c r="K13">
-        <v>11.2944364846661</v>
+        <v>11.0294364846661</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2549,10 +2549,10 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>1.0438958505</v>
+        <v>2.1838958504999999</v>
       </c>
       <c r="K14">
-        <v>11.8348493250462</v>
+        <v>11.5498493250462</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2563,10 +2563,10 @@
         <v>14</v>
       </c>
       <c r="J15">
-        <v>1.138377816</v>
+        <v>2.2783778159999999</v>
       </c>
       <c r="K15">
-        <v>12.334539792575301</v>
+        <v>12.049539792575301</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2577,10 +2577,10 @@
         <v>14</v>
       </c>
       <c r="J16">
-        <v>1.2163952185</v>
+        <v>2.4063952185000002</v>
       </c>
       <c r="K16">
-        <v>13.0240669487997</v>
+        <v>12.7265669487997</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FA08AF-23C1-4ADF-82A6-60B266792F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC7AD07-9182-4A73-A18C-68F7D7569A8A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2619,10 +2619,10 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>0.69699629399999996</v>
+        <v>0.64699629400000003</v>
       </c>
       <c r="K2">
-        <v>5.6801481867739696</v>
+        <v>5.6926481867739698</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2633,10 +2633,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>0.88724017600000005</v>
+        <v>0.63724017600000005</v>
       </c>
       <c r="K3">
-        <v>5.5444118738082198</v>
+        <v>5.6069118738082198</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2647,10 +2647,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>0.98028101599999995</v>
+        <v>0.540281016</v>
       </c>
       <c r="K4">
-        <v>4.8585009788767097</v>
+        <v>4.9685009788767101</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2661,10 +2661,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>1.0083496175</v>
+        <v>0.62834961749999996</v>
       </c>
       <c r="K5">
-        <v>5.4335783490496601</v>
+        <v>5.5285783490496598</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2675,10 +2675,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>0.72759986600000004</v>
+        <v>1.0775998659999999</v>
       </c>
       <c r="K6">
-        <v>7.3633835951438398</v>
+        <v>7.2758835951438297</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2689,10 +2689,10 @@
         <v>15</v>
       </c>
       <c r="J7">
-        <v>0.99045584099999995</v>
+        <v>0.79045584099999999</v>
       </c>
       <c r="K7">
-        <v>6.6440559027637001</v>
+        <v>6.6940559027636999</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2703,10 +2703,10 @@
         <v>15</v>
       </c>
       <c r="J8">
-        <v>0.82181594899999999</v>
+        <v>0.74181594900000003</v>
       </c>
       <c r="K8">
-        <v>7.8056843689143802</v>
+        <v>7.8256843689143798</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2731,10 +2731,10 @@
         <v>15</v>
       </c>
       <c r="J10">
-        <v>1.191271545</v>
+        <v>0.74127154500000003</v>
       </c>
       <c r="K10">
-        <v>9.4739012918321901</v>
+        <v>9.5864012918321908</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2745,10 +2745,10 @@
         <v>15</v>
       </c>
       <c r="J11">
-        <v>1.078761716</v>
+        <v>1.298761716</v>
       </c>
       <c r="K11">
-        <v>11.6466013518219</v>
+        <v>11.5916013518219</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2759,10 +2759,10 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>1.259951544</v>
+        <v>1.4499515439999999</v>
       </c>
       <c r="K12">
-        <v>11.302898415369899</v>
+        <v>11.2553984153699</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -2773,10 +2773,10 @@
         <v>15</v>
       </c>
       <c r="J13">
-        <v>1.3953479124999999</v>
+        <v>1.2553479125</v>
       </c>
       <c r="K13">
-        <v>11.069294528724299</v>
+        <v>11.104294528724299</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -2787,10 +2787,10 @@
         <v>15</v>
       </c>
       <c r="J14">
-        <v>1.5759361435000001</v>
+        <v>1.1359361434999999</v>
       </c>
       <c r="K14">
-        <v>9.8023255531660993</v>
+        <v>9.9123255531661005</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -2801,10 +2801,10 @@
         <v>15</v>
       </c>
       <c r="J15">
-        <v>1.7115911349999999</v>
+        <v>1.281591135</v>
       </c>
       <c r="K15">
-        <v>9.5302611203595902</v>
+        <v>9.6377611203595901</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -2815,10 +2815,10 @@
         <v>15</v>
       </c>
       <c r="J16">
-        <v>1.882958041</v>
+        <v>1.392958041</v>
       </c>
       <c r="K16">
-        <v>9.11795911988699</v>
+        <v>9.2404591198869905</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0165EB-43AE-4D1B-B254-E8A0E1C85326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450E78D-838B-4B5B-9F01-666A04291C43}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2857,10 +2857,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.10263386400000001</v>
+        <v>2.1126338640000002</v>
       </c>
       <c r="K2">
-        <v>9.8155703011232909</v>
+        <v>9.3130703011232896</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -2871,10 +2871,10 @@
         <v>16</v>
       </c>
       <c r="J3">
-        <v>0.30926208399999999</v>
+        <v>2.0592620840000002</v>
       </c>
       <c r="K3">
-        <v>9.5153200954383603</v>
+        <v>9.0778200954383603</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -2885,10 +2885,10 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>0.50235841299999995</v>
+        <v>2.3523584130000001</v>
       </c>
       <c r="K4">
-        <v>9.4475829994897307</v>
+        <v>8.9850829994897197</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -2899,10 +2899,10 @@
         <v>16</v>
       </c>
       <c r="J5">
-        <v>0.39121195949999998</v>
+        <v>2.1312119594999999</v>
       </c>
       <c r="K5">
-        <v>9.8299737224537704</v>
+        <v>9.3949737224537699</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -2913,10 +2913,10 @@
         <v>16</v>
       </c>
       <c r="J6">
-        <v>0.6468971375</v>
+        <v>1.8268971375</v>
       </c>
       <c r="K6">
-        <v>6.6063291402825302</v>
+        <v>6.3113291402825302</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -2927,10 +2927,10 @@
         <v>16</v>
       </c>
       <c r="J7">
-        <v>0.62336091599999999</v>
+        <v>2.653360916</v>
       </c>
       <c r="K7">
-        <v>10.1928118257945</v>
+        <v>9.6853118257945194</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -2941,10 +2941,10 @@
         <v>16</v>
       </c>
       <c r="J8">
-        <v>0.26613833599999998</v>
+        <v>3.036138336</v>
       </c>
       <c r="K8">
-        <v>13.839698292712299</v>
+        <v>13.1471982927123</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -2955,10 +2955,10 @@
         <v>16</v>
       </c>
       <c r="J9">
-        <v>0.44860672499999998</v>
+        <v>2.8986067250000001</v>
       </c>
       <c r="K9">
-        <v>15.0547839351884</v>
+        <v>14.442283935188399</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -2969,10 +2969,10 @@
         <v>16</v>
       </c>
       <c r="J10">
-        <v>0.61867656599999998</v>
+        <v>3.1986765660000001</v>
       </c>
       <c r="K10">
-        <v>14.990526748911</v>
+        <v>14.345526748911</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -2983,10 +2983,10 @@
         <v>16</v>
       </c>
       <c r="J11">
-        <v>0.73750659600000001</v>
+        <v>3.2575065959999998</v>
       </c>
       <c r="K11">
-        <v>15.239342529082201</v>
+        <v>14.6093425290822</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -2997,10 +2997,10 @@
         <v>16</v>
       </c>
       <c r="J12">
-        <v>0.96102505100000002</v>
+        <v>3.0410250510000001</v>
       </c>
       <c r="K12">
-        <v>14.1584697646473</v>
+        <v>13.638469764647301</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3011,10 +3011,10 @@
         <v>16</v>
       </c>
       <c r="J13">
-        <v>1.100263564</v>
+        <v>3.080263564</v>
       </c>
       <c r="K13">
-        <v>14.309376574753401</v>
+        <v>13.8143765747534</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3025,10 +3025,10 @@
         <v>16</v>
       </c>
       <c r="J14">
-        <v>1.1886420044999999</v>
+        <v>3.0486420045</v>
       </c>
       <c r="K14">
-        <v>14.1376189509298</v>
+        <v>13.672618950929801</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3039,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="J15">
-        <v>1.3422419459999999</v>
+        <v>3.0522419460000001</v>
       </c>
       <c r="K15">
-        <v>14.116199787472601</v>
+        <v>13.688699787472601</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3053,10 +3053,10 @@
         <v>16</v>
       </c>
       <c r="J16">
-        <v>1.48877675</v>
+        <v>3.0787767499999998</v>
       </c>
       <c r="K16">
-        <v>14.205237319349299</v>
+        <v>13.8077373193493</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3069,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE3E2DE-E5DD-4CB3-9BA4-32072D3F48AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C74929-DBBE-4A97-B9AC-839CD471C1C3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3095,10 +3095,10 @@
         <v>17</v>
       </c>
       <c r="J2">
-        <v>-5.9534904999999999E-2</v>
+        <v>2.2604650949999998</v>
       </c>
       <c r="K2">
-        <v>13.776767287893801</v>
+        <v>13.196767287893801</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3109,10 +3109,10 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>0.23825299</v>
+        <v>2.0182529900000001</v>
       </c>
       <c r="K3">
-        <v>12.2277257935959</v>
+        <v>11.782725793595899</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3123,10 +3123,10 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>0.313056051</v>
+        <v>2.053056051</v>
       </c>
       <c r="K4">
-        <v>12.2841072201267</v>
+        <v>11.849107220126699</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3137,10 +3137,10 @@
         <v>17</v>
       </c>
       <c r="J5">
-        <v>0.40751914299999997</v>
+        <v>1.867519143</v>
       </c>
       <c r="K5">
-        <v>11.2143955567158</v>
+        <v>10.8493955567158</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3151,10 +3151,10 @@
         <v>17</v>
       </c>
       <c r="J6">
-        <v>0.33962478499999998</v>
+        <v>2.1396247850000001</v>
       </c>
       <c r="K6">
-        <v>12.688892433887</v>
+        <v>12.238892433887001</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3165,10 +3165,10 @@
         <v>17</v>
       </c>
       <c r="J7">
-        <v>0.66330663999999995</v>
+        <v>1.7333066399999999</v>
       </c>
       <c r="K7">
-        <v>9.5807377235616507</v>
+        <v>9.3132377235616399</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3179,10 +3179,10 @@
         <v>17</v>
       </c>
       <c r="J8">
-        <v>0.59328908999999996</v>
+        <v>1.81328909</v>
       </c>
       <c r="K8">
-        <v>11.1094284124315</v>
+        <v>10.8044284124315</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3193,10 +3193,10 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>0.61446296899999997</v>
+        <v>2.1944629689999999</v>
       </c>
       <c r="K9">
-        <v>12.139397956380099</v>
+        <v>11.7443979563801</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3207,10 +3207,10 @@
         <v>17</v>
       </c>
       <c r="J10">
-        <v>0.73217886600000004</v>
+        <v>2.2621788660000002</v>
       </c>
       <c r="K10">
-        <v>12.6568977492534</v>
+        <v>12.274397749253399</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3221,10 +3221,10 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>0.8097959025</v>
+        <v>2.6397959025</v>
       </c>
       <c r="K11">
-        <v>12.340452394238</v>
+        <v>11.882952394238</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3235,10 +3235,10 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>0.94087238549999996</v>
+        <v>2.6308723855</v>
       </c>
       <c r="K12">
-        <v>12.578040807734601</v>
+        <v>12.155540807734599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3249,10 +3249,10 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <v>1.118587065</v>
+        <v>2.6785870649999999</v>
       </c>
       <c r="K13">
-        <v>12.6330888501884</v>
+        <v>12.2430888501884</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3263,10 +3263,10 @@
         <v>17</v>
       </c>
       <c r="J14">
-        <v>1.2387011640000001</v>
+        <v>2.7287011639999998</v>
       </c>
       <c r="K14">
-        <v>12.7116603254384</v>
+        <v>12.339160325438399</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3277,10 +3277,10 @@
         <v>17</v>
       </c>
       <c r="J15">
-        <v>1.4053682009999999</v>
+        <v>2.6753682009999999</v>
       </c>
       <c r="K15">
-        <v>12.267862059339</v>
+        <v>11.950362059339</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3291,10 +3291,10 @@
         <v>17</v>
       </c>
       <c r="J16">
-        <v>1.5522989195000001</v>
+        <v>2.7622989195000001</v>
       </c>
       <c r="K16">
-        <v>12.044582804371601</v>
+        <v>11.7420828043716</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F54846B-A8CF-46A7-8830-5E33BC2E2BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D9593-7C6D-450C-AAC2-7BA291F7495F}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3333,10 +3333,10 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>0.15593088099999999</v>
+        <v>1.995930881</v>
       </c>
       <c r="K2">
-        <v>11.795893992078801</v>
+        <v>11.3358939920788</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3347,10 +3347,10 @@
         <v>18</v>
       </c>
       <c r="J3">
-        <v>0.38274878750000002</v>
+        <v>1.8827487875</v>
       </c>
       <c r="K3">
-        <v>11.0680484195634</v>
+        <v>10.6930484195634</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3361,10 +3361,10 @@
         <v>18</v>
       </c>
       <c r="J4">
-        <v>0.73269302400000003</v>
+        <v>1.3326930239999999</v>
       </c>
       <c r="K4">
-        <v>7.71901989468493</v>
+        <v>7.5690198946849296</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3375,10 +3375,10 @@
         <v>18</v>
       </c>
       <c r="J5">
-        <v>0.60436525100000005</v>
+        <v>1.654365251</v>
       </c>
       <c r="K5">
-        <v>9.6584566324554793</v>
+        <v>9.39595663245548</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3389,10 +3389,10 @@
         <v>18</v>
       </c>
       <c r="J6">
-        <v>0.82531526150000001</v>
+        <v>1.2453152615</v>
       </c>
       <c r="K6">
-        <v>7.1777807736661003</v>
+        <v>7.0727807736660999</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3403,10 +3403,10 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>0.95662494899999995</v>
+        <v>1.366624949</v>
       </c>
       <c r="K7">
-        <v>6.8250670504212296</v>
+        <v>6.7225670504212296</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3417,10 +3417,10 @@
         <v>18</v>
       </c>
       <c r="J8">
-        <v>0.94958004350000003</v>
+        <v>1.4695800434999999</v>
       </c>
       <c r="K8">
-        <v>6.5912871809058204</v>
+        <v>6.4612871809058197</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3431,10 +3431,10 @@
         <v>18</v>
       </c>
       <c r="J9">
-        <v>1.0705212559999999</v>
+        <v>1.5005212560000001</v>
       </c>
       <c r="K9">
-        <v>6.2569710558630103</v>
+        <v>6.1494710558630103</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3445,10 +3445,10 @@
         <v>18</v>
       </c>
       <c r="J10">
-        <v>1.303204314</v>
+        <v>1.5832043140000001</v>
       </c>
       <c r="K10">
-        <v>6.0543276886232897</v>
+        <v>5.9843276886232903</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3459,10 +3459,10 @@
         <v>18</v>
       </c>
       <c r="J11">
-        <v>1.0929148795000001</v>
+        <v>2.0829148795000001</v>
       </c>
       <c r="K11">
-        <v>9.80994799245377</v>
+        <v>9.5624479924537695</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3473,10 +3473,10 @@
         <v>18</v>
       </c>
       <c r="J12">
-        <v>1.1849895669999999</v>
+        <v>2.1849895670000001</v>
       </c>
       <c r="K12">
-        <v>10.0985923342774</v>
+        <v>9.8485923342774004</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3487,10 +3487,10 @@
         <v>18</v>
       </c>
       <c r="J13">
-        <v>1.3204245754999999</v>
+        <v>2.2604245755000001</v>
       </c>
       <c r="K13">
-        <v>10.486640431467499</v>
+        <v>10.2516404314675</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3501,10 +3501,10 @@
         <v>18</v>
       </c>
       <c r="J14">
-        <v>1.3415165570000001</v>
+        <v>2.4315165570000001</v>
       </c>
       <c r="K14">
-        <v>11.364296203215799</v>
+        <v>11.0917962032158</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3515,10 +3515,10 @@
         <v>18</v>
       </c>
       <c r="J15">
-        <v>1.431976352</v>
+        <v>2.5919763520000001</v>
       </c>
       <c r="K15">
-        <v>12.1803538572055</v>
+        <v>11.890353857205501</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3529,10 +3529,10 @@
         <v>18</v>
       </c>
       <c r="J16">
-        <v>1.4771417950000001</v>
+        <v>2.897141795</v>
       </c>
       <c r="K16">
-        <v>13.718258386866401</v>
+        <v>13.3632583868664</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3545,7 +3545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423A9234-D6EB-493C-8118-BC0467C1E641}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E09DFF-77E3-4AD4-B09D-A41C82FD7D39}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3571,10 +3571,10 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <v>-0.26751429500000001</v>
+        <v>1.8524857050000001</v>
       </c>
       <c r="K2">
-        <v>15.063714190188399</v>
+        <v>14.5337141901884</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3585,10 +3585,10 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <v>-0.1544575</v>
+        <v>1.1355424999999999</v>
       </c>
       <c r="K3">
-        <v>13.8364609503425</v>
+        <v>13.513960950342501</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3613,10 +3613,10 @@
         <v>19</v>
       </c>
       <c r="J5">
-        <v>0.12230646000000001</v>
+        <v>0.60230645999999999</v>
       </c>
       <c r="K5">
-        <v>12.179678179520501</v>
+        <v>12.0596781795205</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3627,10 +3627,10 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <v>-7.4578389999999897E-2</v>
+        <v>0.78542160999999999</v>
       </c>
       <c r="K6">
-        <v>15.968103501609599</v>
+        <v>15.753103501609599</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3641,10 +3641,10 @@
         <v>19</v>
       </c>
       <c r="J7">
-        <v>4.1152650000000297E-2</v>
+        <v>0.97115264999999995</v>
       </c>
       <c r="K7">
-        <v>15.913189919691799</v>
+        <v>15.680689919691799</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3655,10 +3655,10 @@
         <v>19</v>
       </c>
       <c r="J8">
-        <v>-0.18514704000000001</v>
+        <v>1.28485296</v>
       </c>
       <c r="K8">
-        <v>16.913059362739698</v>
+        <v>16.545559362739699</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3669,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="J9">
-        <v>0.39638375999999997</v>
+        <v>1.70638376</v>
       </c>
       <c r="K9">
-        <v>17.135587621643801</v>
+        <v>16.8080876216438</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3683,10 +3683,10 @@
         <v>19</v>
       </c>
       <c r="J10">
-        <v>0.38235374849999998</v>
+        <v>1.9123537485</v>
       </c>
       <c r="K10">
-        <v>17.420975946436599</v>
+        <v>17.038475946436598</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3697,10 +3697,10 @@
         <v>19</v>
       </c>
       <c r="J11">
-        <v>0.16006315500000001</v>
+        <v>2.4700631550000001</v>
       </c>
       <c r="K11">
-        <v>20.809655444126701</v>
+        <v>20.2321554441267</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3711,10 +3711,10 @@
         <v>19</v>
       </c>
       <c r="J12">
-        <v>9.1299950500000296E-2</v>
+        <v>3.0212999505</v>
       </c>
       <c r="K12">
-        <v>23.058320217854501</v>
+        <v>22.325820217854499</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3725,10 +3725,10 @@
         <v>19</v>
       </c>
       <c r="J13">
-        <v>-5.6041263500000001E-2</v>
+        <v>3.4839587365</v>
       </c>
       <c r="K13">
-        <v>25.520199356970899</v>
+        <v>24.635199356970901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3739,10 +3739,10 @@
         <v>19</v>
       </c>
       <c r="J14">
-        <v>-7.7365225499999496E-2</v>
+        <v>3.2826347745</v>
       </c>
       <c r="K14">
-        <v>25.879916648840801</v>
+        <v>25.039916648840801</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3753,10 +3753,10 @@
         <v>19</v>
       </c>
       <c r="J15">
-        <v>0.25479598399999998</v>
+        <v>3.5747959840000001</v>
       </c>
       <c r="K15">
-        <v>26.671976346465701</v>
+        <v>25.841976346465799</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -3767,10 +3767,10 @@
         <v>19</v>
       </c>
       <c r="J16">
-        <v>-0.14856517699999999</v>
+        <v>4.0414348230000003</v>
       </c>
       <c r="K16">
-        <v>29.4140906093185</v>
+        <v>28.3665906093185</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24B6696-8934-4496-8CE2-F3EA439698D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1EF1A4-206B-4E66-8C1E-EA60FDFA5D3E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3809,10 +3809,10 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <v>-0.58918733099999998</v>
+        <v>3.8008126689999999</v>
       </c>
       <c r="K2">
-        <v>16.629744777955501</v>
+        <v>15.5322447779555</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -3823,10 +3823,10 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>-0.25427675900000002</v>
+        <v>3.425723241</v>
       </c>
       <c r="K3">
-        <v>14.919495217147301</v>
+        <v>13.999495217147301</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -3837,10 +3837,10 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>-0.40256716799999998</v>
+        <v>4.0374328320000004</v>
       </c>
       <c r="K4">
-        <v>17.609225353643801</v>
+        <v>16.499225353643801</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -3851,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>-0.25717774999999998</v>
+        <v>3.7128222499999999</v>
       </c>
       <c r="K5">
-        <v>16.165253341609599</v>
+        <v>15.172753341609599</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -3865,10 +3865,10 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>-0.14744547099999999</v>
+        <v>2.0625545289999998</v>
       </c>
       <c r="K6">
-        <v>16.4277394499418</v>
+        <v>15.8752394499418</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -3879,10 +3879,10 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0.18198839999999999</v>
+        <v>1.6419884</v>
       </c>
       <c r="K7">
-        <v>16.863620708219202</v>
+        <v>16.4986207082192</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -3893,10 +3893,10 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.20139125599999999</v>
+        <v>1.8313912560000001</v>
       </c>
       <c r="K8">
-        <v>16.041853555863</v>
+        <v>15.634353555862999</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -3907,10 +3907,10 @@
         <v>20</v>
       </c>
       <c r="J9">
-        <v>0.63349260799999996</v>
+        <v>1.543492608</v>
       </c>
       <c r="K9">
-        <v>13.148956984986301</v>
+        <v>12.9214569849863</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -3921,10 +3921,10 @@
         <v>20</v>
       </c>
       <c r="J10">
-        <v>0.47585798000000001</v>
+        <v>2.4158579800000002</v>
       </c>
       <c r="K10">
-        <v>15.3739026282877</v>
+        <v>14.888902628287701</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -3935,10 +3935,10 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>0.67461631399999999</v>
+        <v>2.6346163140000001</v>
       </c>
       <c r="K11">
-        <v>15.9395664694452</v>
+        <v>15.4495664694452</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -3949,10 +3949,10 @@
         <v>20</v>
       </c>
       <c r="J12">
-        <v>0.590460757</v>
+        <v>2.580460757</v>
       </c>
       <c r="K12">
-        <v>16.901060153215798</v>
+        <v>16.4035601532158</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -3963,10 +3963,10 @@
         <v>20</v>
       </c>
       <c r="J13">
-        <v>0.62473764050000002</v>
+        <v>2.6647376404999998</v>
       </c>
       <c r="K13">
-        <v>18.623379973436599</v>
+        <v>18.113379973436601</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -3977,10 +3977,10 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0.616552604</v>
+        <v>3.1165526039999998</v>
       </c>
       <c r="K14">
-        <v>18.495583766808199</v>
+        <v>17.870583766808199</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -3991,10 +3991,10 @@
         <v>20</v>
       </c>
       <c r="J15">
-        <v>0.73830235499999997</v>
+        <v>3.678302355</v>
       </c>
       <c r="K15">
-        <v>20.653444959195198</v>
+        <v>19.918444959195199</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4005,10 +4005,10 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>0.81565320550000098</v>
+        <v>3.6456532054999999</v>
       </c>
       <c r="K16">
-        <v>20.812344232871599</v>
+        <v>20.104844232871599</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F3912F-3F05-41E2-870E-99FAD15406F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D845F6-55A3-4B16-AB7A-C9874BF203FA}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4047,10 +4047,10 @@
         <v>21</v>
       </c>
       <c r="J2">
-        <v>-0.64953147649999998</v>
+        <v>3.4504685235000001</v>
       </c>
       <c r="K2">
-        <v>17.9748499924127</v>
+        <v>16.949849992412702</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4061,10 +4061,10 @@
         <v>21</v>
       </c>
       <c r="J3">
-        <v>-0.26703362200000003</v>
+        <v>3.042966378</v>
       </c>
       <c r="K3">
-        <v>15.775547446595899</v>
+        <v>14.948047446595901</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4075,10 +4075,10 @@
         <v>21</v>
       </c>
       <c r="J4">
-        <v>0.4034859945</v>
+        <v>1.7934859944999999</v>
       </c>
       <c r="K4">
-        <v>10.251462747950301</v>
+        <v>9.9039627479503398</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4089,10 +4089,10 @@
         <v>21</v>
       </c>
       <c r="J5">
-        <v>-0.26422990200000002</v>
+        <v>3.1857700979999999</v>
       </c>
       <c r="K5">
-        <v>17.633268434404101</v>
+        <v>16.770768434404101</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4103,10 +4103,10 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <v>0.60623977250000005</v>
+        <v>1.5262397725000001</v>
       </c>
       <c r="K6">
-        <v>8.0987112897517104</v>
+        <v>7.86871128975171</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4117,10 +4117,10 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>0.69774902449999998</v>
+        <v>1.1977490245</v>
       </c>
       <c r="K7">
-        <v>10.0692024699024</v>
+        <v>9.9442024699024003</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4131,10 +4131,10 @@
         <v>21</v>
       </c>
       <c r="J8">
-        <v>0.636717015</v>
+        <v>1.226717015</v>
       </c>
       <c r="K8">
-        <v>11.042738554469199</v>
+        <v>10.8952385544692</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4145,10 +4145,10 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <v>0.735299382</v>
+        <v>1.4252993819999999</v>
       </c>
       <c r="K9">
-        <v>11.0254326887466</v>
+        <v>10.8529326887466</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4159,10 +4159,10 @@
         <v>21</v>
       </c>
       <c r="J10">
-        <v>1.011630354</v>
+        <v>1.4316303539999999</v>
       </c>
       <c r="K10">
-        <v>9.9017841923219194</v>
+        <v>9.7967841923219208</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4173,10 +4173,10 @@
         <v>21</v>
       </c>
       <c r="J11">
-        <v>0.75687061249999998</v>
+        <v>2.0068706125000002</v>
       </c>
       <c r="K11">
-        <v>13.1291508400257</v>
+        <v>12.8166508400257</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4187,10 +4187,10 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>0.70685515300000001</v>
+        <v>2.4968551529999998</v>
       </c>
       <c r="K12">
-        <v>14.3599629240788</v>
+        <v>13.912462924078801</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4201,10 +4201,10 @@
         <v>21</v>
       </c>
       <c r="J13">
-        <v>0.76558817749999997</v>
+        <v>2.6255881775000001</v>
       </c>
       <c r="K13">
-        <v>14.856101585762</v>
+        <v>14.391101585762</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4215,10 +4215,10 @@
         <v>21</v>
       </c>
       <c r="J14">
-        <v>0.70304937700000103</v>
+        <v>2.753049377</v>
       </c>
       <c r="K14">
-        <v>15.6802198475308</v>
+        <v>15.167719847530799</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4229,10 +4229,10 @@
         <v>21</v>
       </c>
       <c r="J15">
-        <v>0.86111124000000006</v>
+        <v>2.8811112400000001</v>
       </c>
       <c r="K15">
-        <v>15.7770934228767</v>
+        <v>15.272093422876701</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4243,10 +4243,10 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <v>0.87195606999999997</v>
+        <v>3.0519560700000001</v>
       </c>
       <c r="K16">
-        <v>15.9886315304452</v>
+        <v>15.443631530445201</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FD453E-E81B-4FBE-BC16-9D920FE5467A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C00FC2-BF51-45D9-AB89-393E1306CA40}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4285,10 +4285,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>0.79546962099999996</v>
+        <v>0.45546962099999999</v>
       </c>
       <c r="K2">
-        <v>2.1050409509143799</v>
+        <v>2.1900409509143799</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4299,10 +4299,10 @@
         <v>22</v>
       </c>
       <c r="J3">
-        <v>0.95297848799999996</v>
+        <v>0.502978488</v>
       </c>
       <c r="K3">
-        <v>2.3060151040274</v>
+        <v>2.4185151040274002</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4313,10 +4313,10 @@
         <v>22</v>
       </c>
       <c r="J4">
-        <v>0.91335624000000004</v>
+        <v>0.79335624000000005</v>
       </c>
       <c r="K4">
-        <v>3.7847321728767098</v>
+        <v>3.8147321728767101</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4327,10 +4327,10 @@
         <v>22</v>
       </c>
       <c r="J5">
-        <v>1.012162923</v>
+        <v>0.62216292299999998</v>
       </c>
       <c r="K5">
-        <v>2.8941026939075298</v>
+        <v>2.99160269390753</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4341,10 +4341,10 @@
         <v>22</v>
       </c>
       <c r="J6">
-        <v>0.94064945600000005</v>
+        <v>0.83064945599999995</v>
       </c>
       <c r="K6">
-        <v>3.9665184579178101</v>
+        <v>3.99401845791781</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4355,10 +4355,10 @@
         <v>22</v>
       </c>
       <c r="J7">
-        <v>1.090847106</v>
+        <v>0.85084710600000002</v>
       </c>
       <c r="K7">
-        <v>4.0311334289794498</v>
+        <v>4.0911334289794503</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4369,10 +4369,10 @@
         <v>22</v>
       </c>
       <c r="J8">
-        <v>1.094899753</v>
+        <v>0.88489975300000001</v>
       </c>
       <c r="K8">
-        <v>4.2023819110650704</v>
+        <v>4.2548819110650697</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4383,10 +4383,10 @@
         <v>22</v>
       </c>
       <c r="J9">
-        <v>1.2177459749999999</v>
+        <v>0.82774597500000002</v>
       </c>
       <c r="K9">
-        <v>3.88263473912671</v>
+        <v>3.9801347391267101</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4397,10 +4397,10 @@
         <v>22</v>
       </c>
       <c r="J10">
-        <v>1.396000591</v>
+        <v>0.90600059099999997</v>
       </c>
       <c r="K10">
-        <v>4.2338738248527399</v>
+        <v>4.3563738248527404</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4411,10 +4411,10 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <v>1.484576892</v>
+        <v>1.004576892</v>
       </c>
       <c r="K11">
-        <v>4.7103461879589004</v>
+        <v>4.8303461879588996</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4425,10 +4425,10 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <v>1.638418454</v>
+        <v>0.97841845400000005</v>
       </c>
       <c r="K12">
-        <v>4.5395734686917804</v>
+        <v>4.7045734686917804</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4439,10 +4439,10 @@
         <v>22</v>
       </c>
       <c r="J13">
-        <v>1.7744579519999999</v>
+        <v>1.0044579520000001</v>
       </c>
       <c r="K13">
-        <v>4.6372677037808199</v>
+        <v>4.8297677037808198</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4453,10 +4453,10 @@
         <v>22</v>
       </c>
       <c r="J14">
-        <v>1.8620979</v>
+        <v>0.99209789999999998</v>
       </c>
       <c r="K14">
-        <v>4.55286319623288</v>
+        <v>4.7703631962328803</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4467,10 +4467,10 @@
         <v>22</v>
       </c>
       <c r="J15">
-        <v>2.0091100499999999</v>
+        <v>0.98911004999999996</v>
       </c>
       <c r="K15">
-        <v>4.5009457751712301</v>
+        <v>4.75594577517123</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4481,10 +4481,10 @@
         <v>22</v>
       </c>
       <c r="J16">
-        <v>2.1713515000000001</v>
+        <v>0.99135150000000005</v>
       </c>
       <c r="K16">
-        <v>4.4717525359588999</v>
+        <v>4.7667525359588998</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4497,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A1123-75EA-4555-B09E-9EF3AB32E142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFD612-12F7-48FA-9543-611107DADA9D}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4523,10 +4523,10 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>0.21436434200000001</v>
+        <v>2.344364342</v>
       </c>
       <c r="K2">
-        <v>10.377400695321899</v>
+        <v>9.84490069532192</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4537,10 +4537,10 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>0.50493533599999996</v>
+        <v>2.0149353360000002</v>
       </c>
       <c r="K3">
-        <v>8.8390278098356205</v>
+        <v>8.4615278098356193</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4551,10 +4551,10 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>0.576737952</v>
+        <v>2.1367379519999998</v>
       </c>
       <c r="K4">
-        <v>9.3629963339178097</v>
+        <v>8.9729963339178092</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4565,10 +4565,10 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>0.58467788799999998</v>
+        <v>2.1346778880000001</v>
       </c>
       <c r="K5">
-        <v>9.3518551855342409</v>
+        <v>8.9643551855342505</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4579,10 +4579,10 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>0.35875586999999998</v>
+        <v>1.58875587</v>
       </c>
       <c r="K6">
-        <v>10.208558977705501</v>
+        <v>9.90105897770548</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4593,10 +4593,10 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>0.47617904999999999</v>
+        <v>1.0461790500000001</v>
       </c>
       <c r="K7">
-        <v>10.8499045525685</v>
+        <v>10.7074045525685</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4607,10 +4607,10 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>0.78382384999999999</v>
+        <v>0.52382384999999998</v>
       </c>
       <c r="K8">
-        <v>10.058948147089</v>
+        <v>10.123948147088999</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4621,10 +4621,10 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>0.81022709000000004</v>
+        <v>0.67022709000000003</v>
       </c>
       <c r="K9">
-        <v>9.7239089809246604</v>
+        <v>9.7589089809246605</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4635,10 +4635,10 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <v>0.83614001999999998</v>
+        <v>0.95614001999999998</v>
       </c>
       <c r="K10">
-        <v>11.9389102004795</v>
+        <v>11.9089102004795</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4649,10 +4649,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.53220851300000005</v>
+        <v>1.712208513</v>
       </c>
       <c r="K11">
-        <v>13.384878008736299</v>
+        <v>13.089878008736299</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4663,10 +4663,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>0.41756021799999998</v>
+        <v>2.0575602179999999</v>
       </c>
       <c r="K12">
-        <v>14.736453781116399</v>
+        <v>14.326453781116401</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4677,10 +4677,10 @@
         <v>5</v>
       </c>
       <c r="J13">
-        <v>0.52037438800000002</v>
+        <v>2.3703743880000001</v>
       </c>
       <c r="K13">
-        <v>15.571092704369899</v>
+        <v>15.108592704369901</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4691,10 +4691,10 @@
         <v>5</v>
       </c>
       <c r="J14">
-        <v>0.465296396</v>
+        <v>2.2152963959999998</v>
       </c>
       <c r="K14">
-        <v>15.952990969493101</v>
+        <v>15.515490969493101</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4705,10 +4705,10 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>0.60239443000000004</v>
+        <v>2.5323944300000001</v>
       </c>
       <c r="K15">
-        <v>17.562556187020501</v>
+        <v>17.080056187020499</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4719,10 +4719,10 @@
         <v>5</v>
       </c>
       <c r="J16">
-        <v>0.68418607499999995</v>
+        <v>2.6641860749999999</v>
       </c>
       <c r="K16">
-        <v>17.000193207277398</v>
+        <v>16.505193207277401</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4735,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B05DE7-0BE5-4F00-8C2C-051D250ABDF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947B342-5B81-40A8-80FE-34EBCF5C950B}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4761,10 +4761,10 @@
         <v>23</v>
       </c>
       <c r="J2">
-        <v>-0.48079904499999998</v>
+        <v>0.47920095499999998</v>
       </c>
       <c r="K2">
-        <v>12.177372363989701</v>
+        <v>11.9373723639897</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -4775,10 +4775,10 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>-0.1577624</v>
+        <v>0.4322376</v>
       </c>
       <c r="K3">
-        <v>10.9169597780822</v>
+        <v>10.769459778082201</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -4789,10 +4789,10 @@
         <v>23</v>
       </c>
       <c r="J4">
-        <v>0.12090719</v>
+        <v>0.38090719000000001</v>
       </c>
       <c r="K4">
-        <v>9.5530759422260303</v>
+        <v>9.4880759422260308</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -4803,10 +4803,10 @@
         <v>23</v>
       </c>
       <c r="J5">
-        <v>0.26660060000000002</v>
+        <v>0.33660060000000003</v>
       </c>
       <c r="K5">
-        <v>8.4034142335616409</v>
+        <v>8.3859142335616408</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -4817,10 +4817,10 @@
         <v>23</v>
       </c>
       <c r="J6">
-        <v>0.28325863000000001</v>
+        <v>0.34325863000000001</v>
       </c>
       <c r="K6">
-        <v>8.5677058904452092</v>
+        <v>8.5527058904451998</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -4831,10 +4831,10 @@
         <v>23</v>
       </c>
       <c r="J7">
-        <v>0.43680888000000001</v>
+        <v>0.34680887999999999</v>
       </c>
       <c r="K7">
-        <v>8.6167703827397304</v>
+        <v>8.6392703827397206</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -4845,10 +4845,10 @@
         <v>23</v>
       </c>
       <c r="J8">
-        <v>0.42573576000000002</v>
+        <v>0.35573576000000001</v>
       </c>
       <c r="K8">
-        <v>8.8453030463013693</v>
+        <v>8.8628030463013694</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -4859,10 +4859,10 @@
         <v>23</v>
       </c>
       <c r="J9">
-        <v>0.46477284000000002</v>
+        <v>0.37477284</v>
       </c>
       <c r="K9">
-        <v>9.3149191187671203</v>
+        <v>9.3374191187671194</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -4873,10 +4873,10 @@
         <v>23</v>
       </c>
       <c r="J10">
-        <v>0.46943149499999998</v>
+        <v>0.43943149500000001</v>
       </c>
       <c r="K10">
-        <v>10.941213359126699</v>
+        <v>10.9487133591267</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -4887,10 +4887,10 @@
         <v>23</v>
       </c>
       <c r="J11">
-        <v>0.47388237500000002</v>
+        <v>0.48388237499999998</v>
       </c>
       <c r="K11">
-        <v>12.05672940625</v>
+        <v>12.05422940625</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -4901,10 +4901,10 @@
         <v>23</v>
       </c>
       <c r="J12">
-        <v>0.52335236500000004</v>
+        <v>0.51335236500000003</v>
       </c>
       <c r="K12">
-        <v>12.7849016347774</v>
+        <v>12.7874016347774</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -4915,10 +4915,10 @@
         <v>23</v>
       </c>
       <c r="J13">
-        <v>0.58762687999999996</v>
+        <v>0.53762688000000003</v>
       </c>
       <c r="K13">
-        <v>13.383237115616399</v>
+        <v>13.3957371156164</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -4929,10 +4929,10 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <v>0.64656265499999999</v>
+        <v>0.54656265500000001</v>
       </c>
       <c r="K14">
-        <v>13.5905360485788</v>
+        <v>13.6155360485788</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -4943,10 +4943,10 @@
         <v>23</v>
       </c>
       <c r="J15">
-        <v>0.76698257999999997</v>
+        <v>0.55698258</v>
       </c>
       <c r="K15">
-        <v>13.8213077796575</v>
+        <v>13.873807779657501</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -4957,10 +4957,10 @@
         <v>23</v>
       </c>
       <c r="J16">
-        <v>0.99328174000000002</v>
+        <v>0.53328173999999995</v>
       </c>
       <c r="K16">
-        <v>13.1717316197945</v>
+        <v>13.2867316197945</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -4973,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731CAE7A-F663-4430-A54A-7E686DE39F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16C297C-5890-4DEE-895C-D57C43BDDA75}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4999,10 +4999,10 @@
         <v>24</v>
       </c>
       <c r="J2">
-        <v>-1.1719879019999999</v>
+        <v>4.6280120980000001</v>
       </c>
       <c r="K2">
-        <v>23.902709304267098</v>
+        <v>22.452709304267099</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5013,10 +5013,10 @@
         <v>24</v>
       </c>
       <c r="J3">
-        <v>-0.60903357650000001</v>
+        <v>3.8109664235</v>
       </c>
       <c r="K3">
-        <v>19.593840585905799</v>
+        <v>18.488840585905798</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5027,10 +5027,10 @@
         <v>24</v>
       </c>
       <c r="J4">
-        <v>9.9479773000000105E-2</v>
+        <v>2.6394797730000001</v>
       </c>
       <c r="K4">
-        <v>12.8933889608596</v>
+        <v>12.2583889608596</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5041,10 +5041,10 @@
         <v>24</v>
       </c>
       <c r="J5">
-        <v>-0.36106249400000001</v>
+        <v>3.5489375060000001</v>
       </c>
       <c r="K5">
-        <v>18.195101239938399</v>
+        <v>17.2176012399384</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5055,10 +5055,10 @@
         <v>24</v>
       </c>
       <c r="J6">
-        <v>4.4704684000000099E-2</v>
+        <v>2.9147046840000002</v>
       </c>
       <c r="K6">
-        <v>13.224293692013701</v>
+        <v>12.5067936920137</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5069,10 +5069,10 @@
         <v>24</v>
       </c>
       <c r="J7">
-        <v>0.22243353299999999</v>
+        <v>2.8624335329999999</v>
       </c>
       <c r="K7">
-        <v>12.942508055106201</v>
+        <v>12.2825080551062</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5083,10 +5083,10 @@
         <v>24</v>
       </c>
       <c r="J8">
-        <v>-0.4942429465</v>
+        <v>4.4857570535000004</v>
       </c>
       <c r="K8">
-        <v>20.493059366762001</v>
+        <v>19.248059366762</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5097,10 +5097,10 @@
         <v>24</v>
       </c>
       <c r="J9">
-        <v>-0.88741409999999998</v>
+        <v>5.5625859000000002</v>
       </c>
       <c r="K9">
-        <v>25.481163114041099</v>
+        <v>23.868663114041102</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5111,10 +5111,10 @@
         <v>24</v>
       </c>
       <c r="J10">
-        <v>0.120249868</v>
+        <v>3.8202498679999999</v>
       </c>
       <c r="K10">
-        <v>17.317416985054798</v>
+        <v>16.392416985054801</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5125,10 +5125,10 @@
         <v>24</v>
       </c>
       <c r="J11">
-        <v>-0.25571122699999999</v>
+        <v>4.954288773</v>
       </c>
       <c r="K11">
-        <v>22.560997669763701</v>
+        <v>21.258497669763699</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5139,10 +5139,10 @@
         <v>24</v>
       </c>
       <c r="J12">
-        <v>-7.2720187999999894E-2</v>
+        <v>4.8672798119999996</v>
       </c>
       <c r="K12">
-        <v>22.1201581291918</v>
+        <v>20.885158129191801</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5153,10 +5153,10 @@
         <v>24</v>
       </c>
       <c r="J13">
-        <v>-5.1316295999999997E-2</v>
+        <v>5.138683704</v>
       </c>
       <c r="K13">
-        <v>23.347223594547899</v>
+        <v>22.049723594547899</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5167,10 +5167,10 @@
         <v>24</v>
       </c>
       <c r="J14">
-        <v>-5.5214563999999501E-2</v>
+        <v>5.3347854359999998</v>
       </c>
       <c r="K14">
-        <v>24.238688572506899</v>
+        <v>22.891188572506898</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5181,10 +5181,10 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <v>0.42938645199999997</v>
+        <v>4.5893864520000003</v>
       </c>
       <c r="K15">
-        <v>20.732728729465801</v>
+        <v>19.692728729465799</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5195,10 +5195,10 @@
         <v>24</v>
       </c>
       <c r="J16">
-        <v>0.43908596750000101</v>
+        <v>4.9090859675000003</v>
       </c>
       <c r="K16">
-        <v>22.182049056070198</v>
+        <v>21.064549056070199</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614A2ACD-AC7F-4317-B5F7-8A61CA0BB8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEF3342-BE0F-44F2-8F8B-9A9173CB80D8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5237,10 +5237,10 @@
         <v>25</v>
       </c>
       <c r="J2">
-        <v>-1.225038488</v>
+        <v>4.7549615120000004</v>
       </c>
       <c r="K2">
-        <v>24.1631801699452</v>
+        <v>22.668180169945199</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5251,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="J3">
-        <v>-0.57247672999999999</v>
+        <v>3.7075232699999998</v>
       </c>
       <c r="K3">
-        <v>18.503797264691801</v>
+        <v>17.433797264691801</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5265,10 +5265,10 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>-1.0283395515</v>
+        <v>4.8216604485000003</v>
       </c>
       <c r="K4">
-        <v>23.900820504313401</v>
+        <v>22.438320504313399</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5279,10 +5279,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>-1.1408831344999999</v>
+        <v>5.1191168654999997</v>
       </c>
       <c r="K5">
-        <v>25.086816674036001</v>
+        <v>23.521816674036</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5293,10 +5293,10 @@
         <v>25</v>
       </c>
       <c r="J6">
-        <v>-1.2202332920000001</v>
+        <v>5.169766708</v>
       </c>
       <c r="K6">
-        <v>27.6081076380685</v>
+        <v>26.0106076380685</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5307,10 +5307,10 @@
         <v>25</v>
       </c>
       <c r="J7">
-        <v>-0.98301751999999998</v>
+        <v>5.0869824799999996</v>
       </c>
       <c r="K7">
-        <v>28.2404762978082</v>
+        <v>26.722976297808199</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5321,10 +5321,10 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>-0.75244115499999997</v>
+        <v>5.0475588450000002</v>
       </c>
       <c r="K8">
-        <v>28.209651384640399</v>
+        <v>26.759651384640399</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5335,10 +5335,10 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>5.1309673000000201E-2</v>
+        <v>3.7313096730000002</v>
       </c>
       <c r="K9">
-        <v>20.2910862803801</v>
+        <v>19.371086280380101</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5349,10 +5349,10 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>0.22330944450000001</v>
+        <v>4.0933094445</v>
       </c>
       <c r="K10">
-        <v>21.2378109950394</v>
+        <v>20.270310995039399</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5363,10 +5363,10 @@
         <v>25</v>
       </c>
       <c r="J11">
-        <v>-0.1132269055</v>
+        <v>5.2167730944999997</v>
       </c>
       <c r="K11">
-        <v>25.945212205827101</v>
+        <v>24.612712205827101</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5377,10 +5377,10 @@
         <v>25</v>
       </c>
       <c r="J12">
-        <v>-0.1367525</v>
+        <v>5.6432475000000002</v>
       </c>
       <c r="K12">
-        <v>27.904726481164399</v>
+        <v>26.459726481164399</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5391,10 +5391,10 @@
         <v>25</v>
       </c>
       <c r="J13">
-        <v>-0.413996105</v>
+        <v>6.4460038949999996</v>
       </c>
       <c r="K13">
-        <v>30.032982587893802</v>
+        <v>28.317982587893798</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5405,10 +5405,10 @@
         <v>25</v>
       </c>
       <c r="J14">
-        <v>-0.65004056249999997</v>
+        <v>6.7299594374999998</v>
       </c>
       <c r="K14">
-        <v>30.042526578981199</v>
+        <v>28.197526578981201</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5419,10 +5419,10 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>-0.55604450000000005</v>
+        <v>6.9239554999999999</v>
       </c>
       <c r="K15">
-        <v>31.293419344178101</v>
+        <v>29.4234193441781</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5433,10 +5433,10 @@
         <v>25</v>
       </c>
       <c r="J16">
-        <v>-0.60563215000000004</v>
+        <v>7.4643678500000004</v>
       </c>
       <c r="K16">
-        <v>33.437690229280797</v>
+        <v>31.420190229280799</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5449,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6F4232-7B07-4D10-8F34-511D5322C5F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1A6272-0A90-4418-BE0E-C3904AE454D0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5475,10 +5475,10 @@
         <v>26</v>
       </c>
       <c r="J2">
-        <v>-0.147235752</v>
+        <v>2.382764248</v>
       </c>
       <c r="K2">
-        <v>19.262210307863</v>
+        <v>18.629710307863</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5489,10 +5489,10 @@
         <v>26</v>
       </c>
       <c r="J3">
-        <v>0.14725350749999999</v>
+        <v>2.2272535075</v>
       </c>
       <c r="K3">
-        <v>17.178082513536001</v>
+        <v>16.658082513536002</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5503,10 +5503,10 @@
         <v>26</v>
       </c>
       <c r="J4">
-        <v>-0.54690360599999999</v>
+        <v>2.273096394</v>
       </c>
       <c r="K4">
-        <v>14.243075216568499</v>
+        <v>13.538075216568499</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5517,10 +5517,10 @@
         <v>26</v>
       </c>
       <c r="J5">
-        <v>0.28393452749999998</v>
+        <v>2.3039345275000001</v>
       </c>
       <c r="K5">
-        <v>16.989621847577101</v>
+        <v>16.484621847577099</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5531,10 +5531,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>-0.26258999999999999</v>
+        <v>2.36741</v>
       </c>
       <c r="K6">
-        <v>13.4276105136986</v>
+        <v>12.770110513698601</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5545,10 +5545,10 @@
         <v>26</v>
       </c>
       <c r="J7">
-        <v>0.28816012800000002</v>
+        <v>1.4881601280000001</v>
       </c>
       <c r="K7">
-        <v>10.6814846255342</v>
+        <v>10.381484625534201</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5559,10 +5559,10 @@
         <v>26</v>
       </c>
       <c r="J8">
-        <v>0.35448144500000001</v>
+        <v>1.5044814449999999</v>
       </c>
       <c r="K8">
-        <v>10.532978268887</v>
+        <v>10.245478268887</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5573,10 +5573,10 @@
         <v>26</v>
       </c>
       <c r="J9">
-        <v>0.52207687000000003</v>
+        <v>0.93207686999999995</v>
       </c>
       <c r="K9">
-        <v>8.8545177688013705</v>
+        <v>8.7520177688013696</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5587,10 +5587,10 @@
         <v>26</v>
       </c>
       <c r="J10">
-        <v>0.40032780000000001</v>
+        <v>0.6403278</v>
       </c>
       <c r="K10">
-        <v>10.229534488356199</v>
+        <v>10.1695344883562</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -5601,10 +5601,10 @@
         <v>26</v>
       </c>
       <c r="J11">
-        <v>-0.23803901999999999</v>
+        <v>1.98196098</v>
       </c>
       <c r="K11">
-        <v>15.620928933082199</v>
+        <v>15.065928933082199</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -5615,10 +5615,10 @@
         <v>26</v>
       </c>
       <c r="J12">
-        <v>7.0425999999999905E-2</v>
+        <v>1.8304260000000001</v>
       </c>
       <c r="K12">
-        <v>14.354033226027401</v>
+        <v>13.914033226027399</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -5629,10 +5629,10 @@
         <v>26</v>
       </c>
       <c r="J13">
-        <v>0.16595199999999999</v>
+        <v>1.8759520000000001</v>
       </c>
       <c r="K13">
-        <v>14.6875914520548</v>
+        <v>14.2600914520548</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -5643,10 +5643,10 @@
         <v>26</v>
       </c>
       <c r="J14">
-        <v>0.12884872999999999</v>
+        <v>1.9788487299999999</v>
       </c>
       <c r="K14">
-        <v>15.504767269554799</v>
+        <v>15.042267269554801</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -5657,10 +5657,10 @@
         <v>26</v>
       </c>
       <c r="J15">
-        <v>0.21327112500000101</v>
+        <v>2.043271125</v>
       </c>
       <c r="K15">
-        <v>15.989486328339</v>
+        <v>15.531986328339</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -5671,10 +5671,10 @@
         <v>26</v>
       </c>
       <c r="J16">
-        <v>0.43580945500000001</v>
+        <v>1.9858094550000001</v>
       </c>
       <c r="K16">
-        <v>15.4826805129623</v>
+        <v>15.095180512962299</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -5687,7 +5687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D975F5-3811-4F5A-804A-73B958231F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41792DA5-82F6-4C7D-9188-8FCF905524CD}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5713,10 +5713,10 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <v>1.255565748</v>
+        <v>0.31556574799999998</v>
       </c>
       <c r="K2">
-        <v>3.06916541231507</v>
+        <v>3.3041654123150699</v>
       </c>
       <c r="L2">
         <v>1996</v>
@@ -5727,10 +5727,10 @@
         <v>27</v>
       </c>
       <c r="J3">
-        <v>1.2452457450000001</v>
+        <v>0.34524574499999999</v>
       </c>
       <c r="K3">
-        <v>3.3899969199143798</v>
+        <v>3.6149969199143799</v>
       </c>
       <c r="L3">
         <v>1999</v>
@@ -5741,10 +5741,10 @@
         <v>27</v>
       </c>
       <c r="J4">
-        <v>1.333006508</v>
+        <v>0.36300650800000001</v>
       </c>
       <c r="K4">
-        <v>3.61984385245206</v>
+        <v>3.8623438524520499</v>
       </c>
       <c r="L4">
         <v>2002</v>
@@ -5755,10 +5755,10 @@
         <v>27</v>
       </c>
       <c r="J5">
-        <v>1.544330502</v>
+        <v>0.364330502</v>
       </c>
       <c r="K5">
-        <v>3.7673762786095901</v>
+        <v>4.0623762786095901</v>
       </c>
       <c r="L5">
         <v>2005</v>
@@ -5769,10 +5769,10 @@
         <v>27</v>
       </c>
       <c r="J6">
-        <v>1.6961880739999999</v>
+        <v>0.35618807400000002</v>
       </c>
       <c r="K6">
-        <v>3.8192680499931502</v>
+        <v>4.1542680499931501</v>
       </c>
       <c r="L6">
         <v>2008</v>
@@ -5783,10 +5783,10 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>1.7944838875</v>
+        <v>0.40448388749999997</v>
       </c>
       <c r="K7">
-        <v>4.5087927267551402</v>
+        <v>4.8562927267551403</v>
       </c>
       <c r="L7">
         <v>2010</v>
@@ -5797,10 +5797,10 @@
         <v>27</v>
       </c>
       <c r="J8">
-        <v>1.9658992710000001</v>
+        <v>0.38589927099999999</v>
       </c>
       <c r="K8">
-        <v>4.3042881959486303</v>
+        <v>4.6992881959486299</v>
       </c>
       <c r="L8">
         <v>2011</v>
@@ -5811,10 +5811,10 @@
         <v>27</v>
       </c>
       <c r="J9">
-        <v>1.8423152270000001</v>
+        <v>1.2023152269999999</v>
       </c>
       <c r="K9">
-        <v>4.9653321521541098</v>
+        <v>5.12533215215411</v>
       </c>
       <c r="L9">
         <v>2012</v>
@@ -5825,10 +5825,10 @@
         <v>27</v>
       </c>
       <c r="J10">
-        <v>1.993700547</v>
+        <v>1.213700547</v>
       </c>
       <c r="K10">
-        <v>4.9788721235239697</v>
+        <v>5.17387212352397</v>
       </c>
       <c r="L10">
         <v>2013</v>
@@ -5839,10 +5839,10 @@
         <v>27</v>
       </c>
       <c r="J11">
-        <v>2.1563496120000001</v>
+        <v>1.1963496119999999</v>
       </c>
       <c r="K11">
-        <v>4.8598851997397201</v>
+        <v>5.0998851997397203</v>
       </c>
       <c r="L11">
         <v>2015</v>
@@ -5855,7 +5855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B96B50F-1ED9-48C1-B716-623E4E68C355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B19649-5B83-41DB-B8AE-39CA8B16438A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5881,10 +5881,10 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>0.30337368999999997</v>
+        <v>1.0833736899999999</v>
       </c>
       <c r="K2">
-        <v>10.062718221335601</v>
+        <v>9.86771822133562</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <v>0.62078652899999998</v>
+        <v>0.95078652900000005</v>
       </c>
       <c r="K3">
-        <v>8.5143554225445204</v>
+        <v>8.4318554225445208</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -5909,10 +5909,10 @@
         <v>6</v>
       </c>
       <c r="J4">
-        <v>0.61303472999999997</v>
+        <v>1.07303473</v>
       </c>
       <c r="K4">
-        <v>11.383746796952099</v>
+        <v>11.268746796952099</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -5923,10 +5923,10 @@
         <v>6</v>
       </c>
       <c r="J5">
-        <v>0.48076407700000001</v>
+        <v>1.2207640769999999</v>
       </c>
       <c r="K5">
-        <v>12.7325528163664</v>
+        <v>12.5475528163664</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -5937,10 +5937,10 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>0.55654017499999997</v>
+        <v>1.0865401750000001</v>
       </c>
       <c r="K6">
-        <v>11.416712901455501</v>
+        <v>11.284212901455501</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -5951,10 +5951,10 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.46936718700000002</v>
+        <v>1.399367187</v>
       </c>
       <c r="K7">
-        <v>15.4570760114692</v>
+        <v>15.2245760114692</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -5965,10 +5965,10 @@
         <v>6</v>
       </c>
       <c r="J8">
-        <v>0.52016231000000002</v>
+        <v>1.4901623100000001</v>
       </c>
       <c r="K8">
-        <v>14.746836134828801</v>
+        <v>14.504336134828799</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -5979,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>0.50286061049999997</v>
+        <v>1.7828606105</v>
       </c>
       <c r="K9">
-        <v>16.796158819977698</v>
+        <v>16.476158819977702</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -5993,10 +5993,10 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>0.60809834399999996</v>
+        <v>1.988098344</v>
       </c>
       <c r="K10">
-        <v>16.841265824958899</v>
+        <v>16.4962658249589</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6007,10 +6007,10 @@
         <v>6</v>
       </c>
       <c r="J11">
-        <v>0.40868415499999999</v>
+        <v>2.5386841549999999</v>
       </c>
       <c r="K11">
-        <v>19.793064577688401</v>
+        <v>19.260564577688399</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6021,10 +6021,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>0.33838769000000102</v>
+        <v>2.7983876900000002</v>
       </c>
       <c r="K12">
-        <v>21.299666091198599</v>
+        <v>20.684666091198601</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6035,10 +6035,10 @@
         <v>6</v>
       </c>
       <c r="J13">
-        <v>0.36544607499999998</v>
+        <v>2.9354460750000002</v>
       </c>
       <c r="K13">
-        <v>21.978578207277401</v>
+        <v>21.336078207277399</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6049,10 +6049,10 @@
         <v>6</v>
       </c>
       <c r="J14">
-        <v>0.30938249750000002</v>
+        <v>3.2893824975000001</v>
       </c>
       <c r="K14">
-        <v>23.7680434167209</v>
+        <v>23.023043416720899</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6063,10 +6063,10 @@
         <v>6</v>
       </c>
       <c r="J15">
-        <v>0.31638628000000102</v>
+        <v>3.3963862800000002</v>
       </c>
       <c r="K15">
-        <v>25.078393840958899</v>
+        <v>24.3083938409589</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6077,10 +6077,10 @@
         <v>6</v>
       </c>
       <c r="J16">
-        <v>0.53684816800000101</v>
+        <v>3.4868481679999999</v>
       </c>
       <c r="K16">
-        <v>23.933896177178099</v>
+        <v>23.196396177178102</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6093,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45CB04B0-F5EF-41F8-B1AC-96C21FFBF1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF582844-B7A0-445F-9A22-F3781D4F3A1E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6119,10 +6119,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>-3.42276264999999E-2</v>
+        <v>2.0057723735000001</v>
       </c>
       <c r="K2">
-        <v>15.004874714844201</v>
+        <v>14.494874714844199</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6133,10 +6133,10 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>0.38805449349999999</v>
+        <v>1.5480544935</v>
       </c>
       <c r="K3">
-        <v>11.4771425410086</v>
+        <v>11.187142541008599</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6147,10 +6147,10 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>0.32104228200000001</v>
+        <v>1.971042282</v>
       </c>
       <c r="K4">
-        <v>14.606173676075301</v>
+        <v>14.193673676075299</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6161,10 +6161,10 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>0.45430617400000001</v>
+        <v>1.644306174</v>
       </c>
       <c r="K5">
-        <v>12.1802590729384</v>
+        <v>11.8827590729384</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6175,10 +6175,10 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>0.20975357</v>
+        <v>2.4097535699999999</v>
       </c>
       <c r="K6">
-        <v>16.466173936267101</v>
+        <v>15.9161739362671</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6189,10 +6189,10 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>0.14554076799999999</v>
+        <v>2.7755407679999999</v>
       </c>
       <c r="K7">
-        <v>18.977023027178099</v>
+        <v>18.3195230271781</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6203,10 +6203,10 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>0.115577975</v>
+        <v>2.7055779750000002</v>
       </c>
       <c r="K8">
-        <v>18.471789067893798</v>
+        <v>17.824289067893801</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6217,10 +6217,10 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>0.1804563465</v>
+        <v>2.7004563465000002</v>
       </c>
       <c r="K9">
-        <v>17.0657434476216</v>
+        <v>16.435743447621601</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6231,10 +6231,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0.264373621</v>
+        <v>3.1843736210000002</v>
       </c>
       <c r="K10">
-        <v>17.9932367317363</v>
+        <v>17.263236731736299</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6245,10 +6245,10 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>0.171315632</v>
+        <v>3.6913156319999998</v>
       </c>
       <c r="K11">
-        <v>19.999193009808199</v>
+        <v>19.1191930098082</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6259,10 +6259,10 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>0.247114528</v>
+        <v>3.8671145280000001</v>
       </c>
       <c r="K12">
-        <v>20.3703789022466</v>
+        <v>19.465378902246599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6273,10 +6273,10 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>0.34751184400000001</v>
+        <v>4.117511844</v>
       </c>
       <c r="K13">
-        <v>21.014222039</v>
+        <v>20.071722039000001</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6287,10 +6287,10 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>0.24066656550000101</v>
+        <v>4.6806665655000002</v>
       </c>
       <c r="K14">
-        <v>23.470271714789401</v>
+        <v>22.360271714789398</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6301,10 +6301,10 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>0.282224223</v>
+        <v>5.1422242230000004</v>
       </c>
       <c r="K15">
-        <v>25.293950793565099</v>
+        <v>24.078950793565099</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6315,10 +6315,10 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>0.21752247999999999</v>
+        <v>5.1375224800000003</v>
       </c>
       <c r="K16">
-        <v>26.980665955342499</v>
+        <v>25.750665955342502</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6331,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AC41B-5958-4180-8373-A9CACF2802CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D742FD9-3D89-427E-84B6-A4FF0135D3A8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6357,10 +6357,10 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>-9.1024379999999905E-2</v>
+        <v>1.6789756199999999</v>
       </c>
       <c r="K2">
-        <v>11.435660204589</v>
+        <v>10.993160204589</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6371,10 +6371,10 @@
         <v>8</v>
       </c>
       <c r="J3">
-        <v>0.115916904</v>
+        <v>1.6459169039999999</v>
       </c>
       <c r="K3">
-        <v>11.159076938383601</v>
+        <v>10.776576938383601</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6385,10 +6385,10 @@
         <v>8</v>
       </c>
       <c r="J4">
-        <v>0.15868272899999999</v>
+        <v>1.748682729</v>
       </c>
       <c r="K4">
-        <v>11.846916988982899</v>
+        <v>11.4494169889829</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6399,10 +6399,10 @@
         <v>8</v>
       </c>
       <c r="J5">
-        <v>0.200562505</v>
+        <v>1.6905625049999999</v>
       </c>
       <c r="K5">
-        <v>11.441548414845901</v>
+        <v>11.0690484148459</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6413,10 +6413,10 @@
         <v>8</v>
       </c>
       <c r="J6">
-        <v>1.19269890000002E-2</v>
+        <v>1.6619269889999999</v>
       </c>
       <c r="K6">
-        <v>12.6298374308322</v>
+        <v>12.217337430832201</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6427,10 +6427,10 @@
         <v>8</v>
       </c>
       <c r="J7">
-        <v>0.37129763999999998</v>
+        <v>1.06129764</v>
       </c>
       <c r="K7">
-        <v>10.8252481927397</v>
+        <v>10.652748192739701</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6441,10 +6441,10 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>0.51146862500000001</v>
+        <v>0.85146862499999998</v>
       </c>
       <c r="K8">
-        <v>10.3145164053938</v>
+        <v>10.229516405393801</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6455,10 +6455,10 @@
         <v>8</v>
       </c>
       <c r="J9">
-        <v>0.74152106799999995</v>
+        <v>1.4515210679999999</v>
       </c>
       <c r="K9">
-        <v>11.4032087740959</v>
+        <v>11.225708774095899</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6469,10 +6469,10 @@
         <v>8</v>
       </c>
       <c r="J10">
-        <v>0.82619217599999994</v>
+        <v>1.846192176</v>
       </c>
       <c r="K10">
-        <v>12.776794421753401</v>
+        <v>12.5217944217534</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6483,10 +6483,10 @@
         <v>8</v>
       </c>
       <c r="J11">
-        <v>0.80322600499999997</v>
+        <v>1.7532260049999999</v>
       </c>
       <c r="K11">
-        <v>14.3979044576541</v>
+        <v>14.160404457654099</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6497,10 +6497,10 @@
         <v>8</v>
       </c>
       <c r="J12">
-        <v>0.86430443199999996</v>
+        <v>2.0843044320000002</v>
       </c>
       <c r="K12">
-        <v>15.727600604328799</v>
+        <v>15.4226006043288</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6511,10 +6511,10 @@
         <v>8</v>
       </c>
       <c r="J13">
-        <v>0.94836906099999996</v>
+        <v>2.288369061</v>
       </c>
       <c r="K13">
-        <v>16.3561460909144</v>
+        <v>16.021146090914399</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6525,10 +6525,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>0.94693574999999996</v>
+        <v>2.3269357500000001</v>
       </c>
       <c r="K14">
-        <v>16.5329496241438</v>
+        <v>16.187949624143801</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6539,10 +6539,10 @@
         <v>8</v>
       </c>
       <c r="J15">
-        <v>1.0442607859999999</v>
+        <v>2.4642607860000001</v>
       </c>
       <c r="K15">
-        <v>17.370082748705499</v>
+        <v>17.015082748705499</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6553,10 +6553,10 @@
         <v>8</v>
       </c>
       <c r="J16">
-        <v>1.1200215755</v>
+        <v>2.7500215754999999</v>
       </c>
       <c r="K16">
-        <v>17.870849400645501</v>
+        <v>17.463349400645502</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6569,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4D9DFE-D46E-467A-BE57-120A37CFADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250771C6-7EF0-42EF-B7E0-97ADBBD1E170}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6595,10 +6595,10 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>0.36558448300000002</v>
+        <v>0.91558448299999995</v>
       </c>
       <c r="K2">
-        <v>6.7465819614417804</v>
+        <v>6.6090819614417802</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6609,10 +6609,10 @@
         <v>9</v>
       </c>
       <c r="J3">
-        <v>0.28851348999999998</v>
+        <v>1.1785134900000001</v>
       </c>
       <c r="K3">
-        <v>6.89337025763699</v>
+        <v>6.6708702576369898</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6623,10 +6623,10 @@
         <v>9</v>
       </c>
       <c r="J4">
-        <v>-0.21071391</v>
+        <v>1.76928609</v>
       </c>
       <c r="K4">
-        <v>11.815809984349301</v>
+        <v>11.3208099843493</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6637,10 +6637,10 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>0.12717178000000001</v>
+        <v>1.4371717799999999</v>
       </c>
       <c r="K5">
-        <v>8.0776303426712293</v>
+        <v>7.7501303426712296</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6651,10 +6651,10 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>-0.32345012099999998</v>
+        <v>2.0465498790000001</v>
       </c>
       <c r="K6">
-        <v>13.3623104754555</v>
+        <v>12.7698104754555</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6665,10 +6665,10 @@
         <v>9</v>
       </c>
       <c r="J7">
-        <v>-0.1183201665</v>
+        <v>2.0616798334999999</v>
       </c>
       <c r="K7">
-        <v>13.5859307265565</v>
+        <v>13.0409307265565</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6679,10 +6679,10 @@
         <v>9</v>
       </c>
       <c r="J8">
-        <v>-0.16448510199999999</v>
+        <v>2.4655148979999999</v>
       </c>
       <c r="K8">
-        <v>15.706381549472599</v>
+        <v>15.0488815494726</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6693,10 +6693,10 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <v>-0.388317986</v>
+        <v>3.0516820139999998</v>
       </c>
       <c r="K9">
-        <v>21.650571277321902</v>
+        <v>20.790571277321899</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6707,10 +6707,10 @@
         <v>9</v>
       </c>
       <c r="J10">
-        <v>-0.11204489500000001</v>
+        <v>3.4779551049999999</v>
       </c>
       <c r="K10">
-        <v>20.512627662106201</v>
+        <v>19.6151276621062</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6721,10 +6721,10 @@
         <v>9</v>
       </c>
       <c r="J11">
-        <v>-0.1685794695</v>
+        <v>4.1414205304999996</v>
       </c>
       <c r="K11">
-        <v>23.9831393879229</v>
+        <v>22.9056393879229</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6735,10 +6735,10 @@
         <v>9</v>
       </c>
       <c r="J12">
-        <v>-0.26517520099999897</v>
+        <v>4.614824799</v>
       </c>
       <c r="K12">
-        <v>25.995108868743099</v>
+        <v>24.7751088687431</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6749,10 +6749,10 @@
         <v>9</v>
       </c>
       <c r="J13">
-        <v>-7.9377984999999401E-2</v>
+        <v>4.5206220149999998</v>
       </c>
       <c r="K13">
-        <v>26.799332167482898</v>
+        <v>25.6493321674829</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -6763,10 +6763,10 @@
         <v>9</v>
       </c>
       <c r="J14">
-        <v>-9.3245022000000094E-2</v>
+        <v>4.676754978</v>
       </c>
       <c r="K14">
-        <v>27.7139235842671</v>
+        <v>26.521423584267101</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -6777,10 +6777,10 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>-1.5331157999999999E-2</v>
+        <v>4.6846688419999998</v>
       </c>
       <c r="K15">
-        <v>28.5168396388151</v>
+        <v>27.341839638815099</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -6791,10 +6791,10 @@
         <v>9</v>
       </c>
       <c r="J16">
-        <v>2.14935909999996E-2</v>
+        <v>4.8714935910000001</v>
       </c>
       <c r="K16">
-        <v>28.650186876222602</v>
+        <v>27.4376868762226</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -6807,7 +6807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49CB990-120D-49B8-9C4A-9D9D520F6925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08145DB-D572-4979-96EB-C17AA258E905}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6833,10 +6833,10 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>-0.521488603</v>
+        <v>2.5785113970000002</v>
       </c>
       <c r="K2">
-        <v>16.7911392740377</v>
+        <v>16.016139274037702</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -6847,10 +6847,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>-0.38374794800000001</v>
+        <v>2.6462520519999999</v>
       </c>
       <c r="K3">
-        <v>17.194387671931501</v>
+        <v>16.436887671931501</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -6861,10 +6861,10 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <v>0.56823457799999999</v>
+        <v>1.618234578</v>
       </c>
       <c r="K4">
-        <v>9.8123029993356194</v>
+        <v>9.5498029993356202</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -6875,10 +6875,10 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>0.11897725100000001</v>
+        <v>2.098977251</v>
       </c>
       <c r="K5">
-        <v>15.316225550263701</v>
+        <v>14.8212255502637</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -6889,10 +6889,10 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>0.19909026699999999</v>
+        <v>2.4190902670000001</v>
       </c>
       <c r="K6">
-        <v>14.0021698990034</v>
+        <v>13.4471698990034</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -6903,10 +6903,10 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <v>5.9362846000000198E-2</v>
+        <v>2.5893628460000002</v>
       </c>
       <c r="K7">
-        <v>15.0347332611027</v>
+        <v>14.402233261102699</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -6917,10 +6917,10 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>-2.17717144999998E-2</v>
+        <v>2.6382282854999999</v>
       </c>
       <c r="K8">
-        <v>17.606245668351001</v>
+        <v>16.941245668351002</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -6931,10 +6931,10 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <v>0.15422215349999999</v>
+        <v>2.4342221534999999</v>
       </c>
       <c r="K9">
-        <v>16.270562269844199</v>
+        <v>15.7005622698442</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -6945,10 +6945,10 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>0.670320519</v>
+        <v>2.3503205189999998</v>
       </c>
       <c r="K10">
-        <v>14.114084253811599</v>
+        <v>13.694084253811599</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -6959,10 +6959,10 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <v>0.813232387</v>
+        <v>2.6332323870000001</v>
       </c>
       <c r="K11">
-        <v>14.0320083416062</v>
+        <v>13.5770083416062</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -6973,10 +6973,10 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <v>0.89285674999999998</v>
+        <v>2.8428567500000002</v>
       </c>
       <c r="K12">
-        <v>14.865047456335599</v>
+        <v>14.3775474563356</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -6987,10 +6987,10 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <v>0.95628899199999995</v>
+        <v>2.986288992</v>
       </c>
       <c r="K13">
-        <v>15.4375099437808</v>
+        <v>14.930009943780799</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7001,10 +7001,10 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <v>1.097789203</v>
+        <v>2.9077892030000001</v>
       </c>
       <c r="K14">
-        <v>14.24885269925</v>
+        <v>13.796352699250001</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7015,10 +7015,10 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <v>1.2246704450000001</v>
+        <v>3.0146704450000001</v>
       </c>
       <c r="K15">
-        <v>14.930626909297899</v>
+        <v>14.4831269092979</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7029,10 +7029,10 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <v>1.0614382899999999</v>
+        <v>3.5414382899999999</v>
       </c>
       <c r="K16">
-        <v>17.113784263116401</v>
+        <v>16.4937842631164</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7045,7 +7045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE398CF-4481-4AFF-827C-4289A478DB12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47D733-1862-446F-B734-1025BF9736C2}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7071,10 +7071,10 @@
         <v>11</v>
       </c>
       <c r="J2">
-        <v>0.110910365</v>
+        <v>1.260910365</v>
       </c>
       <c r="K2">
-        <v>9.5686313128595906</v>
+        <v>9.2811313128595891</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7085,10 +7085,10 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>0.34246992999999998</v>
+        <v>1.1824699299999999</v>
       </c>
       <c r="K3">
-        <v>8.9138030654451992</v>
+        <v>8.7038030654452108</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7099,10 +7099,10 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>0.429808205</v>
+        <v>1.159808205</v>
       </c>
       <c r="K4">
-        <v>8.7847328802568505</v>
+        <v>8.6022328802568495</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7113,10 +7113,10 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>0.43788282150000002</v>
+        <v>1.2178828214999999</v>
       </c>
       <c r="K5">
-        <v>9.1594402535291106</v>
+        <v>8.9644402535291103</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7127,10 +7127,10 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>0.44296566100000001</v>
+        <v>1.1629656610000001</v>
       </c>
       <c r="K6">
-        <v>8.8701202285856198</v>
+        <v>8.6901202285856201</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7141,10 +7141,10 @@
         <v>11</v>
       </c>
       <c r="J7">
-        <v>0.70596760199999997</v>
+        <v>1.2159676020000001</v>
       </c>
       <c r="K7">
-        <v>8.4078560447054809</v>
+        <v>8.2803560447054796</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7155,10 +7155,10 @@
         <v>11</v>
       </c>
       <c r="J8">
-        <v>0.72549794000000001</v>
+        <v>0.97549794000000001</v>
       </c>
       <c r="K8">
-        <v>9.2213282547260302</v>
+        <v>9.1588282547260302</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7169,10 +7169,10 @@
         <v>11</v>
       </c>
       <c r="J9">
-        <v>0.76751225999999995</v>
+        <v>1.33751226</v>
       </c>
       <c r="K9">
-        <v>10.2014657706164</v>
+        <v>10.0589657706164</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7183,10 +7183,10 @@
         <v>11</v>
       </c>
       <c r="J10">
-        <v>0.81935639500000002</v>
+        <v>1.6093563950000001</v>
       </c>
       <c r="K10">
-        <v>12.211807476592501</v>
+        <v>12.014307476592499</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7197,10 +7197,10 @@
         <v>11</v>
       </c>
       <c r="J11">
-        <v>0.74317445000000004</v>
+        <v>2.1331744499999998</v>
       </c>
       <c r="K11">
-        <v>13.753205017637001</v>
+        <v>13.405705017637001</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7211,10 +7211,10 @@
         <v>11</v>
       </c>
       <c r="J12">
-        <v>0.77280601599999998</v>
+        <v>2.4728060159999998</v>
       </c>
       <c r="K12">
-        <v>14.678193016547899</v>
+        <v>14.2531930165479</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7225,10 +7225,10 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <v>0.73903964799999999</v>
+        <v>2.7090396480000001</v>
       </c>
       <c r="K13">
-        <v>15.144656526356201</v>
+        <v>14.652156526356199</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7239,10 +7239,10 @@
         <v>11</v>
       </c>
       <c r="J14">
-        <v>0.77100368249999995</v>
+        <v>2.8310036825</v>
       </c>
       <c r="K14">
-        <v>16.140428531429801</v>
+        <v>15.625428531429799</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7253,10 +7253,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>1.0053500319999999</v>
+        <v>3.065350032</v>
       </c>
       <c r="K15">
-        <v>16.650251533095901</v>
+        <v>16.1352515330959</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7267,10 +7267,10 @@
         <v>11</v>
       </c>
       <c r="J16">
-        <v>0.97178149999999996</v>
+        <v>3.1417815</v>
       </c>
       <c r="K16">
-        <v>16.968506679794501</v>
+        <v>16.426006679794501</v>
       </c>
       <c r="L16">
         <v>2015</v>
@@ -7283,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC98796-B207-4918-9CC2-C6DE70028D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3765E302-0CCD-4425-B920-C0C97BC11EE5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7309,10 +7309,10 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>-0.33681404999999998</v>
+        <v>0.98318594999999998</v>
       </c>
       <c r="K2">
-        <v>10.3417747453767</v>
+        <v>10.0117747453767</v>
       </c>
       <c r="L2">
         <v>1981</v>
@@ -7323,10 +7323,10 @@
         <v>12</v>
       </c>
       <c r="J3">
-        <v>-2.9019934999999799E-2</v>
+        <v>0.89098006500000004</v>
       </c>
       <c r="K3">
-        <v>9.3028371755308203</v>
+        <v>9.0728371755308199</v>
       </c>
       <c r="L3">
         <v>1984</v>
@@ -7337,10 +7337,10 @@
         <v>12</v>
       </c>
       <c r="J4">
-        <v>0.16090908000000001</v>
+        <v>0.96090907999999997</v>
       </c>
       <c r="K4">
-        <v>10.0948782094521</v>
+        <v>9.8948782094520507</v>
       </c>
       <c r="L4">
         <v>1990</v>
@@ -7351,10 +7351,10 @@
         <v>12</v>
       </c>
       <c r="J5">
-        <v>0.11240571000000001</v>
+        <v>0.87240571</v>
       </c>
       <c r="K5">
-        <v>9.0736561067465793</v>
+        <v>8.8836561067465798</v>
       </c>
       <c r="L5">
         <v>1987</v>
@@ -7365,10 +7365,10 @@
         <v>12</v>
       </c>
       <c r="J6">
-        <v>0.35481055</v>
+        <v>1.1848105499999999</v>
       </c>
       <c r="K6">
-        <v>9.45259599263699</v>
+        <v>9.2450959926369904</v>
       </c>
       <c r="L6">
         <v>1993</v>
@@ -7379,10 +7379,10 @@
         <v>12</v>
       </c>
       <c r="J7">
-        <v>0.53938191150000003</v>
+        <v>1.4193819114999999</v>
       </c>
       <c r="K7">
-        <v>10.1221956180154</v>
+        <v>9.9021956180154103</v>
       </c>
       <c r="L7">
         <v>1996</v>
@@ -7393,10 +7393,10 @@
         <v>12</v>
       </c>
       <c r="J8">
-        <v>0.33183305000000002</v>
+        <v>1.09183305</v>
       </c>
       <c r="K8">
-        <v>10.7892718744863</v>
+        <v>10.5992718744863</v>
       </c>
       <c r="L8">
         <v>1999</v>
@@ -7407,10 +7407,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>0.46209243</v>
+        <v>1.42209243</v>
       </c>
       <c r="K9">
-        <v>11.7674686733219</v>
+        <v>11.5274686733219</v>
       </c>
       <c r="L9">
         <v>2002</v>
@@ -7421,10 +7421,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>0.67839402000000004</v>
+        <v>1.7683940199999999</v>
       </c>
       <c r="K10">
-        <v>11.337148070342501</v>
+        <v>11.0646480703425</v>
       </c>
       <c r="L10">
         <v>2005</v>
@@ -7435,10 +7435,10 @@
         <v>12</v>
       </c>
       <c r="J11">
-        <v>0.94656514999999997</v>
+        <v>2.1965651500000001</v>
       </c>
       <c r="K11">
-        <v>11.609668301541101</v>
+        <v>11.297168301541101</v>
       </c>
       <c r="L11">
         <v>2008</v>
@@ -7449,10 +7449,10 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>1.0731532699999999</v>
+        <v>2.3331532699999999</v>
       </c>
       <c r="K12">
-        <v>11.070273326335601</v>
+        <v>10.755273326335599</v>
       </c>
       <c r="L12">
         <v>2010</v>
@@ -7463,10 +7463,10 @@
         <v>12</v>
       </c>
       <c r="J13">
-        <v>1.2327768255</v>
+        <v>2.4727768255</v>
       </c>
       <c r="K13">
-        <v>10.7614523689675</v>
+        <v>10.4514523689675</v>
       </c>
       <c r="L13">
         <v>2011</v>
@@ -7477,10 +7477,10 @@
         <v>12</v>
       </c>
       <c r="J14">
-        <v>1.253599154</v>
+        <v>2.6235991539999999</v>
       </c>
       <c r="K14">
-        <v>11.1415865128699</v>
+        <v>10.7990865128699</v>
       </c>
       <c r="L14">
         <v>2012</v>
@@ -7491,10 +7491,10 @@
         <v>12</v>
       </c>
       <c r="J15">
-        <v>1.3309678304999999</v>
+        <v>2.8009678304999999</v>
       </c>
       <c r="K15">
-        <v>12.302633384840799</v>
+        <v>11.9351333848408</v>
       </c>
       <c r="L15">
         <v>2013</v>
@@ -7505,10 +7505,10 @@
         <v>12</v>
       </c>
       <c r="J16">
-        <v>1.4731976295</v>
+        <v>3.1031976294999999</v>
       </c>
       <c r="K16">
-        <v>12.319555387145501</v>
+        <v>11.9120553871455</v>
       </c>
       <c r="L16">
         <v>2015</v>

--- a/data/NP20versusRestIncomeTrendsLAC.xlsx
+++ b/data/NP20versusRestIncomeTrendsLAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\income_trends\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FA828CB-F36F-4B80-A215-289EF8B9C39B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D256386-B22B-4917-84FA-71E94B3DB9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{E37D7D82-9DE6-448F-A495-22FE19AB4B90}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3670" firstSheet="21" activeTab="23" xr2:uid="{C40A6DEA-344C-4D45-AF8C-F24B34303D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Belize" sheetId="2" r:id="rId1"/>
@@ -211,7 +211,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76266D84-BB3F-426B-A265-69A3D4266C82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8002E6F5-FF5C-4965-B1F0-9512D85C7135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -269,7 +269,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEB3DCF-EA7D-4C56-A543-9FC2ED73A41B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7986D0-B0EC-4C04-B203-9A588527C940}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -327,7 +327,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAD77DF-2AD2-49DC-BD0C-41B561BB20EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A02B6A-0CC6-4CCE-A015-89ED9D6B3409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -385,7 +385,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83AB9CF-ABD2-4A52-8114-160D14E49BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9B1137-975B-4D89-9829-5C15374BC288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -443,7 +443,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C207455E-2E8A-426B-8E16-9FC425CE6CBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81F7163-ADCA-4EA9-A898-EF42600C7486}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -501,7 +501,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E7F4EE-F3BA-40CF-962C-437B63765A52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DE9339-1096-4127-8323-DDD76D6AF7D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -559,7 +559,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9E88D08-12C5-4338-9C01-897D1F61F620}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1E6946-397C-431D-8ABC-6926B008E853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -617,7 +617,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EF1A5C-D2D7-4970-B21B-238FB9D7FBFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2D5E8C-3DFD-4406-AD88-89B96E98BAAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -675,7 +675,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F0DEA3-E1E0-48EF-A6F8-DB3B7B908817}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B410ED4-B444-44A6-BD1F-416EF6F356B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +733,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82BE0BE-ECE6-4190-8E40-D7DACA1230E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511FA59E-BF3A-4754-94F5-D00A2320AB3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -791,7 +791,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FAB9FD-1DB5-48F8-AD3E-DDD973BF3EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC3904C-2342-4941-9618-4A597466DC43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -849,7 +849,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BB0CF8-BA84-4892-A25A-EFA911FC6B8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D87B95C5-4AB9-47F1-B2D4-0E6963E271E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +907,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5079E8F-4680-4C34-B4AD-6571F42DF045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAFCBE6-516D-4EAE-881D-FDE0945391DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE48469-429E-42BF-AEE8-6D7328636DC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5959C8FC-F744-4D93-8CA8-9D7B19662D03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1023,7 +1023,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28D6913-C08E-4CCD-9C53-546C4FDF4827}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41045306-6488-4125-8327-825F2C4F4126}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1081,7 +1081,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C807CB-072E-4041-96BE-84A4066F7EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FDC9D3-3D2A-4D4D-9174-1347E9942FA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1139,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BDC5733-3167-4B10-A0F0-DC44C7E91636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E792767C-0216-4E85-97F8-AC99AC9B43B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1197,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BDF9EE-7723-49C6-81B0-6D4394218528}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9146336-9BCC-46A1-823E-D43A81C50613}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1255,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F6DB52-E3AB-4CBE-8B51-ADF944EFA698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2140BC-1CDD-4062-B9CC-F2E1A72C359F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1313,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B7975E-6195-495A-9B9C-01EC70AE8F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B028F56E-FE41-4E59-8E68-003A9CDFAA16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0460A0-67C8-4DD0-ADA8-2BCA20EA6A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF49166-8CD8-4373-A649-04549A5327CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13814EE6-80AE-49BC-985C-C6D8907E7954}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC29D43-D625-4D79-8B3F-0A635A5C9565}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5F3AB7-2E16-4395-BDA5-074397955ABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3721553-392D-4ECE-A474-3CD54053D517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E544E3D-4191-43F0-93F3-0913209079EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E17EEF-504E-4BBC-A133-46F7AEC7EA46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD201B-5E85-4BD4-93A9-3D4BDA14EA52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D73D406-A3D5-4863-B133-7A66EE8B6B59}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC153EF-DF3F-4E90-90B3-6B9B61A7ED0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83AFEE0-BCCD-49E7-87ED-0BE0331C7BD9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2355,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13005DAA-70A5-4B60-8B4A-F412D9319621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60BFB91-02D0-428B-B538-C6A5F10EDBCF}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC7AD07-9182-4A73-A18C-68F7D7569A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0F82F3-E719-497F-9656-152FD3424A8E}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5450E78D-838B-4B5B-9F01-666A04291C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA49EB41-22BC-4AD0-A46D-8E839F0DEAB8}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3069,7 +3069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C74929-DBBE-4A97-B9AC-839CD471C1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DAED2-C5DC-49C1-A0DF-0BCA76ACFE83}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3307,7 +3307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D9593-7C6D-450C-AAC2-7BA291F7495F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527C913D-CFA6-4DA2-9834-578976112750}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3545,7 +3545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E09DFF-77E3-4AD4-B09D-A41C82FD7D39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641C8E4A-C4A9-4230-90A8-0A8066624541}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1EF1A4-206B-4E66-8C1E-EA60FDFA5D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0788BBFB-DF75-49D7-A650-0BE76C73D920}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D845F6-55A3-4B16-AB7A-C9874BF203FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1345FA71-9BF8-4E32-A67A-D42EB1F8B157}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4259,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C00FC2-BF51-45D9-AB89-393E1306CA40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054C5420-45F1-43E9-9BAC-E7E4F0B4D2F0}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4497,7 +4497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFD612-12F7-48FA-9543-611107DADA9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006EDBB3-6E78-452A-807A-EE250DCA5DAB}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4735,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0947B342-5B81-40A8-80FE-34EBCF5C950B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A60973B-E8B2-4359-B0EF-3081FECA8C89}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4973,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16C297C-5890-4DEE-895C-D57C43BDDA75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D14961-716F-4F2E-8B75-CF90009402B5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5211,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEF3342-BE0F-44F2-8F8B-9A9173CB80D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3AB41B-98A4-4A5A-A4AB-D0C5F3E3B4D1}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5449,7 +5449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1A6272-0A90-4418-BE0E-C3904AE454D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217D872D-ACDA-4E00-9AC2-FA666DFF53B9}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5687,7 +5687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41792DA5-82F6-4C7D-9188-8FCF905524CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF84417-1926-4476-AEF8-51CA7A568E6B}">
   <dimension ref="I1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5855,7 +5855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B19649-5B83-41DB-B8AE-39CA8B16438A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CD66A1-03B4-46DC-BC89-D22DBC3893B3}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6093,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF582844-B7A0-445F-9A22-F3781D4F3A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2897A61A-2F69-4C04-B580-03F2383A5552}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6331,7 +6331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D742FD9-3D89-427E-84B6-A4FF0135D3A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5EA4F6-CDFD-4986-A005-871B8C907743}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6569,7 +6569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250771C6-7EF0-42EF-B7E0-97ADBBD1E170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0085FC1-0851-4F5C-B46E-DE0B86339CB5}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6807,7 +6807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08145DB-D572-4979-96EB-C17AA258E905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE91894-7103-47FA-8B78-A8847A354E8A}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7045,7 +7045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F47D733-1862-446F-B734-1025BF9736C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE3061D-DD3F-4822-AF88-6EB577EDB6B7}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7283,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3765E302-0CCD-4425-B920-C0C97BC11EE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260957F4-1E2F-4DEA-864C-F969F2C04F50}">
   <dimension ref="I1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
